--- a/Application/PackerReports (03 Oct 2016).xlsx
+++ b/Application/PackerReports (03 Oct 2016).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="79">
   <si>
     <t>Doorstep Chef Packer Sheet  Week: 9</t>
   </si>
@@ -215,9 +215,6 @@
   </si>
   <si>
     <t>no snakes</t>
-  </si>
-  <si>
-    <t>Michael Bay</t>
   </si>
   <si>
     <t>Rita Ora</t>
@@ -904,7 +901,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="403">
+  <cellXfs count="385">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1828,60 +1825,6 @@
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
@@ -3277,16 +3220,16 @@
         <v>67</v>
       </c>
       <c r="B7" t="s" s="344">
-        <v>50</v>
+        <v>20</v>
       </c>
       <c r="C7" t="s" s="345">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s" s="346">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E7" t="s" s="347">
-        <v>14</v>
+        <v>68</v>
       </c>
       <c r="F7" t="s" s="348">
         <v>14</v>
@@ -3294,19 +3237,19 @@
     </row>
     <row r="8">
       <c r="A8" t="s" s="349">
-        <v>1</v>
+        <v>69</v>
       </c>
       <c r="B8" t="s" s="350">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C8" t="s" s="351">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D8" t="s" s="352">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="E8" t="s" s="353">
-        <v>14</v>
+        <v>70</v>
       </c>
       <c r="F8" t="s" s="354">
         <v>14</v>
@@ -3314,39 +3257,39 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="355">
-        <v>1</v>
+        <v>71</v>
       </c>
       <c r="B9" t="s" s="356">
-        <v>1</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s" s="357">
         <v>21</v>
       </c>
       <c r="D9" t="s" s="358">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="E9" t="s" s="359">
         <v>14</v>
       </c>
       <c r="F9" t="s" s="360">
-        <v>14</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="361">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="B10" t="s" s="362">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C10" t="s" s="363">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D10" t="s" s="364">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E10" t="s" s="365">
-        <v>69</v>
+        <v>14</v>
       </c>
       <c r="F10" t="s" s="366">
         <v>14</v>
@@ -3354,19 +3297,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="367">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="B11" t="s" s="368">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C11" t="s" s="369">
         <v>12</v>
       </c>
       <c r="D11" t="s" s="370">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E11" t="s" s="371">
-        <v>71</v>
+        <v>76</v>
       </c>
       <c r="F11" t="s" s="372">
         <v>14</v>
@@ -3374,101 +3317,41 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="373">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="B12" t="s" s="374">
-        <v>73</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s" s="375">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D12" t="s" s="376">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="E12" t="s" s="377">
         <v>14</v>
       </c>
       <c r="F12" t="s" s="378">
-        <v>74</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="379">
-        <v>75</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s" s="380">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s" s="381">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D13" t="s" s="382">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E13" t="s" s="383">
-        <v>14</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s" s="384">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="385">
-        <v>76</v>
-      </c>
-      <c r="B14" t="s" s="386">
-        <v>23</v>
-      </c>
-      <c r="C14" t="s" s="387">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s" s="388">
-        <v>23</v>
-      </c>
-      <c r="E14" t="s" s="389">
-        <v>77</v>
-      </c>
-      <c r="F14" t="s" s="390">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="391">
-        <v>78</v>
-      </c>
-      <c r="B15" t="s" s="392">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s" s="393">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s" s="394">
-        <v>23</v>
-      </c>
-      <c r="E15" t="s" s="395">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s" s="396">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="397">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s" s="398">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s" s="399">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s" s="400">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s" s="401">
-        <v>79</v>
-      </c>
-      <c r="F16" t="s" s="402">
         <v>14</v>
       </c>
     </row>

--- a/Application/PackerReports (03 Oct 2016).xlsx
+++ b/Application/PackerReports (03 Oct 2016).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="79">
   <si>
     <t>Doorstep Chef Packer Sheet  Week: 9</t>
   </si>
@@ -22,7 +22,7 @@
     <t/>
   </si>
   <si>
-    <t>Collection</t>
+    <t>Collection - -</t>
   </si>
   <si>
     <t>Route: 0</t>
@@ -148,7 +148,7 @@
     <t>Fish once a week and no tough meat</t>
   </si>
   <si>
-    <t>Keanu</t>
+    <t>Michael - 012 345 6789</t>
   </si>
   <si>
     <t>Route: 1</t>
@@ -205,13 +205,13 @@
     <t>Alan Walker</t>
   </si>
   <si>
-    <t>Michael</t>
+    <t>Keanu - 987 654 3210</t>
   </si>
   <si>
     <t>Route: 2</t>
   </si>
   <si>
-    <t>Indiana Jones</t>
+    <t>Indianah Jones</t>
   </si>
   <si>
     <t>no snakes</t>
@@ -571,7 +571,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -730,16 +730,16 @@
       </bottom>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
+      <right>
         <color indexed="8"/>
       </right>
-      <top style="medium">
+      <top>
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
+      <bottom>
         <color indexed="8"/>
       </bottom>
     </border>
@@ -747,7 +747,7 @@
       <left style="thin">
         <color indexed="8"/>
       </left>
-      <right>
+      <right style="thin">
         <color indexed="8"/>
       </right>
       <top>
@@ -767,7 +767,7 @@
       <top>
         <color indexed="8"/>
       </top>
-      <bottom>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
     </border>
@@ -778,10 +778,38 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top>
+      <top style="thin">
         <color indexed="8"/>
       </top>
       <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
     </border>
@@ -792,10 +820,10 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="thin">
+      <top>
         <color indexed="8"/>
       </top>
-      <bottom style="thin">
+      <bottom style="medium">
         <color indexed="8"/>
       </bottom>
     </border>
@@ -806,91 +834,7 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
       <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top>
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="8"/>
-      </bottom>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="medium">
         <color indexed="8"/>
       </top>
       <bottom style="medium">
@@ -901,1112 +845,674 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="385">
+  <cellXfs count="379">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="33" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="34" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="35" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="36" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="right"/>
+      <alignment horizontal="right" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="49" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="50" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="51" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="52" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -2038,10 +1544,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E1" t="s" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s" s="6">
         <v>3</v>
@@ -2529,7 +2035,8 @@
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -2562,10 +2069,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s" s="154">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="E1" t="s" s="155">
-        <v>44</v>
+        <v>1</v>
       </c>
       <c r="F1" t="s" s="156">
         <v>45</v>
@@ -2696,7 +2203,7 @@
         <v>51</v>
       </c>
       <c r="B8" t="s" s="194">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C8" t="s" s="195">
         <v>17</v>
@@ -2713,10 +2220,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s" s="199">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s" s="200">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s" s="201">
         <v>12</v>
@@ -2733,13 +2240,13 @@
     </row>
     <row r="10">
       <c r="A10" t="s" s="205">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="B10" t="s" s="206">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C10" t="s" s="207">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="D10" t="s" s="208">
         <v>16</v>
@@ -2753,19 +2260,19 @@
     </row>
     <row r="11">
       <c r="A11" t="s" s="211">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="B11" t="s" s="212">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s" s="213">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D11" t="s" s="214">
         <v>16</v>
       </c>
       <c r="E11" t="s" s="215">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="F11" t="s" s="216">
         <v>14</v>
@@ -2773,10 +2280,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s" s="217">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B12" t="s" s="218">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C12" t="s" s="219">
         <v>12</v>
@@ -2785,7 +2292,7 @@
         <v>16</v>
       </c>
       <c r="E12" t="s" s="221">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="F12" t="s" s="222">
         <v>14</v>
@@ -2793,10 +2300,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s" s="223">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="B13" t="s" s="224">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C13" t="s" s="225">
         <v>12</v>
@@ -2833,10 +2340,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s" s="235">
-        <v>1</v>
+        <v>56</v>
       </c>
       <c r="B15" t="s" s="236">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C15" t="s" s="237">
         <v>12</v>
@@ -2853,13 +2360,13 @@
     </row>
     <row r="16">
       <c r="A16" t="s" s="241">
-        <v>56</v>
+        <v>1</v>
       </c>
       <c r="B16" t="s" s="242">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C16" t="s" s="243">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D16" t="s" s="244">
         <v>16</v>
@@ -2879,7 +2386,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="s" s="249">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D17" t="s" s="250">
         <v>16</v>
@@ -2893,16 +2400,16 @@
     </row>
     <row r="18">
       <c r="A18" t="s" s="253">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B18" t="s" s="254">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="C18" t="s" s="255">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D18" t="s" s="256">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="E18" t="s" s="257">
         <v>14</v>
@@ -2913,33 +2420,33 @@
     </row>
     <row r="19">
       <c r="A19" t="s" s="259">
-        <v>57</v>
+        <v>1</v>
       </c>
       <c r="B19" t="s" s="260">
-        <v>20</v>
+        <v>1</v>
       </c>
       <c r="C19" t="s" s="261">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="D19" t="s" s="262">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E19" t="s" s="263">
         <v>14</v>
       </c>
       <c r="F19" t="s" s="264">
-        <v>14</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="265">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="B20" t="s" s="266">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C20" t="s" s="267">
-        <v>21</v>
+        <v>12</v>
       </c>
       <c r="D20" t="s" s="268">
         <v>16</v>
@@ -2948,18 +2455,18 @@
         <v>14</v>
       </c>
       <c r="F20" t="s" s="270">
-        <v>58</v>
+        <v>14</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="271">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="B21" t="s" s="272">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C21" t="s" s="273">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D21" t="s" s="274">
         <v>16</v>
@@ -2973,19 +2480,19 @@
     </row>
     <row r="22">
       <c r="A22" t="s" s="277">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B22" t="s" s="278">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s" s="279">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D22" t="s" s="280">
         <v>16</v>
       </c>
       <c r="E22" t="s" s="281">
-        <v>14</v>
+        <v>61</v>
       </c>
       <c r="F22" t="s" s="282">
         <v>14</v>
@@ -2993,10 +2500,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="283">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s" s="284">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="C23" t="s" s="285">
         <v>12</v>
@@ -3005,7 +2512,7 @@
         <v>16</v>
       </c>
       <c r="E23" t="s" s="287">
-        <v>61</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s" s="288">
         <v>14</v>
@@ -3013,13 +2520,13 @@
     </row>
     <row r="24">
       <c r="A24" t="s" s="289">
-        <v>59</v>
+        <v>1</v>
       </c>
       <c r="B24" t="s" s="290">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C24" t="s" s="291">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D24" t="s" s="292">
         <v>16</v>
@@ -3033,13 +2540,13 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="295">
-        <v>1</v>
+        <v>62</v>
       </c>
       <c r="B25" t="s" s="296">
-        <v>1</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s" s="297">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="D25" t="s" s="298">
         <v>16</v>
@@ -3048,32 +2555,13 @@
         <v>14</v>
       </c>
       <c r="F25" t="s" s="300">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="301">
-        <v>62</v>
-      </c>
-      <c r="B26" t="s" s="302">
-        <v>16</v>
-      </c>
-      <c r="C26" t="s" s="303">
-        <v>12</v>
-      </c>
-      <c r="D26" t="s" s="304">
-        <v>16</v>
-      </c>
-      <c r="E26" t="s" s="305">
-        <v>14</v>
-      </c>
-      <c r="F26" t="s" s="306">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3096,268 +2584,269 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="307">
+      <c r="A1" t="s" s="301">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="308">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="309">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="310">
-        <v>1</v>
-      </c>
-      <c r="E1" t="s" s="311">
+      <c r="B1" t="s" s="302">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="303">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="304">
         <v>63</v>
       </c>
-      <c r="F1" t="s" s="312">
+      <c r="E1" t="s" s="305">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="306">
         <v>64</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="313">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="314">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="315">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="316">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="317">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="318">
+      <c r="A2" t="s" s="307">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="308">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="309">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="310">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="311">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="312">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="319">
+      <c r="A3" t="s" s="313">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="320">
+      <c r="B3" t="s" s="314">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="321">
+      <c r="C3" t="s" s="315">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="322">
+      <c r="D3" t="s" s="316">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="323">
+      <c r="E3" t="s" s="317">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="324">
+      <c r="F3" t="s" s="318">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="325">
+      <c r="A4" t="s" s="319">
         <v>65</v>
       </c>
-      <c r="B4" t="s" s="326">
+      <c r="B4" t="s" s="320">
         <v>20</v>
       </c>
-      <c r="C4" t="s" s="327">
+      <c r="C4" t="s" s="321">
         <v>12</v>
       </c>
-      <c r="D4" t="s" s="328">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s" s="329">
+      <c r="D4" t="s" s="322">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s" s="323">
         <v>66</v>
       </c>
-      <c r="F4" t="s" s="330">
+      <c r="F4" t="s" s="324">
         <v>14</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="331">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s" s="332">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s" s="333">
+      <c r="A5" t="s" s="325">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s" s="326">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s" s="327">
         <v>12</v>
       </c>
-      <c r="D5" t="s" s="334">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s" s="335">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s" s="336">
+      <c r="D5" t="s" s="328">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="329">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="330">
         <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="337">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s" s="338">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s" s="339">
+      <c r="A6" t="s" s="331">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s" s="332">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s" s="333">
         <v>12</v>
       </c>
-      <c r="D6" t="s" s="340">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s" s="341">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s" s="342">
+      <c r="D6" t="s" s="334">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s" s="335">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s" s="336">
         <v>14</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="343">
+      <c r="A7" t="s" s="337">
         <v>67</v>
       </c>
-      <c r="B7" t="s" s="344">
+      <c r="B7" t="s" s="338">
         <v>20</v>
       </c>
-      <c r="C7" t="s" s="345">
+      <c r="C7" t="s" s="339">
         <v>17</v>
       </c>
-      <c r="D7" t="s" s="346">
+      <c r="D7" t="s" s="340">
         <v>20</v>
       </c>
-      <c r="E7" t="s" s="347">
+      <c r="E7" t="s" s="341">
         <v>68</v>
       </c>
-      <c r="F7" t="s" s="348">
+      <c r="F7" t="s" s="342">
         <v>14</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="349">
+      <c r="A8" t="s" s="343">
         <v>69</v>
       </c>
-      <c r="B8" t="s" s="350">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s" s="351">
+      <c r="B8" t="s" s="344">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s" s="345">
         <v>12</v>
       </c>
-      <c r="D8" t="s" s="352">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s" s="353">
+      <c r="D8" t="s" s="346">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s" s="347">
         <v>70</v>
       </c>
-      <c r="F8" t="s" s="354">
+      <c r="F8" t="s" s="348">
         <v>14</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="355">
+      <c r="A9" t="s" s="349">
         <v>71</v>
       </c>
-      <c r="B9" t="s" s="356">
+      <c r="B9" t="s" s="350">
         <v>72</v>
       </c>
-      <c r="C9" t="s" s="357">
+      <c r="C9" t="s" s="351">
         <v>21</v>
       </c>
-      <c r="D9" t="s" s="358">
+      <c r="D9" t="s" s="352">
         <v>72</v>
       </c>
-      <c r="E9" t="s" s="359">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s" s="360">
+      <c r="E9" t="s" s="353">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s" s="354">
         <v>73</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="361">
+      <c r="A10" t="s" s="355">
         <v>74</v>
       </c>
-      <c r="B10" t="s" s="362">
+      <c r="B10" t="s" s="356">
         <v>23</v>
       </c>
-      <c r="C10" t="s" s="363">
+      <c r="C10" t="s" s="357">
         <v>12</v>
       </c>
-      <c r="D10" t="s" s="364">
+      <c r="D10" t="s" s="358">
         <v>23</v>
       </c>
-      <c r="E10" t="s" s="365">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s" s="366">
+      <c r="E10" t="s" s="359">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s" s="360">
         <v>14</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="367">
+      <c r="A11" t="s" s="361">
         <v>75</v>
       </c>
-      <c r="B11" t="s" s="368">
+      <c r="B11" t="s" s="362">
         <v>23</v>
       </c>
-      <c r="C11" t="s" s="369">
+      <c r="C11" t="s" s="363">
         <v>12</v>
       </c>
-      <c r="D11" t="s" s="370">
+      <c r="D11" t="s" s="364">
         <v>23</v>
       </c>
-      <c r="E11" t="s" s="371">
+      <c r="E11" t="s" s="365">
         <v>76</v>
       </c>
-      <c r="F11" t="s" s="372">
+      <c r="F11" t="s" s="366">
         <v>14</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="373">
+      <c r="A12" t="s" s="367">
         <v>77</v>
       </c>
-      <c r="B12" t="s" s="374">
+      <c r="B12" t="s" s="368">
         <v>20</v>
       </c>
-      <c r="C12" t="s" s="375">
+      <c r="C12" t="s" s="369">
         <v>12</v>
       </c>
-      <c r="D12" t="s" s="376">
+      <c r="D12" t="s" s="370">
         <v>23</v>
       </c>
-      <c r="E12" t="s" s="377">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s" s="378">
+      <c r="E12" t="s" s="371">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s" s="372">
         <v>14</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="379">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s" s="380">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s" s="381">
+      <c r="A13" t="s" s="373">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s" s="374">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s" s="375">
         <v>17</v>
       </c>
-      <c r="D13" t="s" s="382">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s" s="383">
+      <c r="D13" t="s" s="376">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s" s="377">
         <v>78</v>
       </c>
-      <c r="F13" t="s" s="384">
+      <c r="F13" t="s" s="378">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
-    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A1:C1"/>
+    <mergeCell ref="D1:E1"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Application/PackerReports (03 Oct 2016).xlsx
+++ b/Application/PackerReports (03 Oct 2016).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="378" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="570" uniqueCount="117">
   <si>
     <t>Doorstep Chef Packer Sheet  Week: 9</t>
   </si>
@@ -148,6 +148,84 @@
     <t>Fish once a week and no tough meat</t>
   </si>
   <si>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Walnuts</t>
+  </si>
+  <si>
+    <t>Peanuts</t>
+  </si>
+  <si>
+    <t>Rene Woodford</t>
+  </si>
+  <si>
+    <t>Johnny Depp</t>
+  </si>
+  <si>
+    <t>Pistachios</t>
+  </si>
+  <si>
+    <t>Danny Zuko</t>
+  </si>
+  <si>
+    <t>Strawberries</t>
+  </si>
+  <si>
+    <t>Jimmy Olsen</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Meryl Streep</t>
+  </si>
+  <si>
+    <t>Ronald Weasly</t>
+  </si>
+  <si>
+    <t>Draco Malfoy</t>
+  </si>
+  <si>
+    <t>Rowena Ravenclaw</t>
+  </si>
+  <si>
+    <t>Dudley Dursley</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>Ginny Weasly</t>
+  </si>
+  <si>
+    <t>Luna Lovegood</t>
+  </si>
+  <si>
+    <t>Neville Longbottom</t>
+  </si>
+  <si>
+    <t>Tom Marvolo (AKA Lord Voldormort) Riddle</t>
+  </si>
+  <si>
+    <t>James Potter</t>
+  </si>
+  <si>
+    <t>Peter Petagru</t>
+  </si>
+  <si>
+    <t>Mushrooms</t>
+  </si>
+  <si>
+    <t>Sirius Black</t>
+  </si>
+  <si>
     <t>Michael - 012 345 6789</t>
   </si>
   <si>
@@ -166,9 +244,6 @@
     <t>Harison Ford</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
     <t>Florence NightingGale</t>
   </si>
   <si>
@@ -205,6 +280,24 @@
     <t>Alan Walker</t>
   </si>
   <si>
+    <t>Christiaan Barnard</t>
+  </si>
+  <si>
+    <t>Amanda Bynes</t>
+  </si>
+  <si>
+    <t>Kendral Jennar</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Chloe Sullivan</t>
+  </si>
+  <si>
+    <t>Hermione Granger</t>
+  </si>
+  <si>
     <t>Keanu - 987 654 3210</t>
   </si>
   <si>
@@ -251,6 +344,27 @@
   </si>
   <si>
     <t>Absolutely no nuts</t>
+  </si>
+  <si>
+    <t>Charlie Sheen</t>
+  </si>
+  <si>
+    <t>Billy Joel</t>
+  </si>
+  <si>
+    <t>Oysters</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>Raisens</t>
+  </si>
+  <si>
+    <t>Sydney White</t>
+  </si>
+  <si>
+    <t>Grapes</t>
   </si>
 </sst>
 </file>
@@ -845,7 +959,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="379">
+  <cellXfs count="571">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -889,6 +1003,226 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
       <alignment horizontal="center"/>
@@ -1361,6 +1695,66 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
       <alignment horizontal="center"/>
@@ -1413,6 +1807,46 @@
     <xf numFmtId="0" fontId="54" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
       <alignment horizontal="center"/>
@@ -1525,12 +1959,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.0" customWidth="true"/>
+    <col min="1" max="1" width="38.4375" customWidth="true"/>
     <col min="2" max="2" width="7.5" customWidth="true"/>
     <col min="3" max="3" width="9.375" customWidth="true"/>
     <col min="4" max="4" width="3.75" customWidth="true"/>
-    <col min="5" max="5" width="25.15625" customWidth="true"/>
-    <col min="6" max="6" width="25.15625" customWidth="true"/>
+    <col min="5" max="5" width="13.4375" customWidth="true"/>
+    <col min="6" max="6" width="13.4375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2031,6 +2465,446 @@
       </c>
       <c r="F25" t="s" s="150">
         <v>43</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="151">
+        <v>44</v>
+      </c>
+      <c r="B26" t="s" s="152">
+        <v>45</v>
+      </c>
+      <c r="C26" t="s" s="153">
+        <v>17</v>
+      </c>
+      <c r="D26" t="s" s="154">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s" s="155">
+        <v>46</v>
+      </c>
+      <c r="F26" t="s" s="156">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="157">
+        <v>1</v>
+      </c>
+      <c r="B27" t="s" s="158">
+        <v>1</v>
+      </c>
+      <c r="C27" t="s" s="159">
+        <v>12</v>
+      </c>
+      <c r="D27" t="s" s="160">
+        <v>23</v>
+      </c>
+      <c r="E27" t="s" s="161">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s" s="162">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="163">
+        <v>48</v>
+      </c>
+      <c r="B28" t="s" s="164">
+        <v>23</v>
+      </c>
+      <c r="C28" t="s" s="165">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s" s="166">
+        <v>16</v>
+      </c>
+      <c r="E28" t="s" s="167">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s" s="168">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="169">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s" s="170">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s" s="171">
+        <v>17</v>
+      </c>
+      <c r="D29" t="s" s="172">
+        <v>16</v>
+      </c>
+      <c r="E29" t="s" s="173">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s" s="174">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="175">
+        <v>49</v>
+      </c>
+      <c r="B30" t="s" s="176">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s" s="177">
+        <v>17</v>
+      </c>
+      <c r="D30" t="s" s="178">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s" s="179">
+        <v>50</v>
+      </c>
+      <c r="F30" t="s" s="180">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="181">
+        <v>51</v>
+      </c>
+      <c r="B31" t="s" s="182">
+        <v>23</v>
+      </c>
+      <c r="C31" t="s" s="183">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s" s="184">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s" s="185">
+        <v>52</v>
+      </c>
+      <c r="F31" t="s" s="186">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="187">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s" s="188">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s" s="189">
+        <v>17</v>
+      </c>
+      <c r="D32" t="s" s="190">
+        <v>16</v>
+      </c>
+      <c r="E32" t="s" s="191">
+        <v>14</v>
+      </c>
+      <c r="F32" t="s" s="192">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="193">
+        <v>53</v>
+      </c>
+      <c r="B33" t="s" s="194">
+        <v>16</v>
+      </c>
+      <c r="C33" t="s" s="195">
+        <v>17</v>
+      </c>
+      <c r="D33" t="s" s="196">
+        <v>16</v>
+      </c>
+      <c r="E33" t="s" s="197">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s" s="198">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="199">
+        <v>54</v>
+      </c>
+      <c r="B34" t="s" s="200">
+        <v>55</v>
+      </c>
+      <c r="C34" t="s" s="201">
+        <v>17</v>
+      </c>
+      <c r="D34" t="s" s="202">
+        <v>55</v>
+      </c>
+      <c r="E34" t="s" s="203">
+        <v>14</v>
+      </c>
+      <c r="F34" t="s" s="204">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="205">
+        <v>56</v>
+      </c>
+      <c r="B35" t="s" s="206">
+        <v>16</v>
+      </c>
+      <c r="C35" t="s" s="207">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s" s="208">
+        <v>16</v>
+      </c>
+      <c r="E35" t="s" s="209">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s" s="210">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="211">
+        <v>57</v>
+      </c>
+      <c r="B36" t="s" s="212">
+        <v>27</v>
+      </c>
+      <c r="C36" t="s" s="213">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s" s="214">
+        <v>27</v>
+      </c>
+      <c r="E36" t="s" s="215">
+        <v>14</v>
+      </c>
+      <c r="F36" t="s" s="216">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="217">
+        <v>58</v>
+      </c>
+      <c r="B37" t="s" s="218">
+        <v>20</v>
+      </c>
+      <c r="C37" t="s" s="219">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s" s="220">
+        <v>20</v>
+      </c>
+      <c r="E37" t="s" s="221">
+        <v>14</v>
+      </c>
+      <c r="F37" t="s" s="222">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="223">
+        <v>59</v>
+      </c>
+      <c r="B38" t="s" s="224">
+        <v>16</v>
+      </c>
+      <c r="C38" t="s" s="225">
+        <v>12</v>
+      </c>
+      <c r="D38" t="s" s="226">
+        <v>16</v>
+      </c>
+      <c r="E38" t="s" s="227">
+        <v>14</v>
+      </c>
+      <c r="F38" t="s" s="228">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="229">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s" s="230">
+        <v>27</v>
+      </c>
+      <c r="C39" t="s" s="231">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s" s="232">
+        <v>27</v>
+      </c>
+      <c r="E39" t="s" s="233">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s" s="234">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="235">
+        <v>61</v>
+      </c>
+      <c r="B40" t="s" s="236">
+        <v>16</v>
+      </c>
+      <c r="C40" t="s" s="237">
+        <v>12</v>
+      </c>
+      <c r="D40" t="s" s="238">
+        <v>16</v>
+      </c>
+      <c r="E40" t="s" s="239">
+        <v>14</v>
+      </c>
+      <c r="F40" t="s" s="240">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="241">
+        <v>62</v>
+      </c>
+      <c r="B41" t="s" s="242">
+        <v>16</v>
+      </c>
+      <c r="C41" t="s" s="243">
+        <v>17</v>
+      </c>
+      <c r="D41" t="s" s="244">
+        <v>16</v>
+      </c>
+      <c r="E41" t="s" s="245">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s" s="246">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="247">
+        <v>63</v>
+      </c>
+      <c r="B42" t="s" s="248">
+        <v>16</v>
+      </c>
+      <c r="C42" t="s" s="249">
+        <v>12</v>
+      </c>
+      <c r="D42" t="s" s="250">
+        <v>16</v>
+      </c>
+      <c r="E42" t="s" s="251">
+        <v>14</v>
+      </c>
+      <c r="F42" t="s" s="252">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="253">
+        <v>64</v>
+      </c>
+      <c r="B43" t="s" s="254">
+        <v>16</v>
+      </c>
+      <c r="C43" t="s" s="255">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s" s="256">
+        <v>16</v>
+      </c>
+      <c r="E43" t="s" s="257">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s" s="258">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="259">
+        <v>65</v>
+      </c>
+      <c r="B44" t="s" s="260">
+        <v>16</v>
+      </c>
+      <c r="C44" t="s" s="261">
+        <v>17</v>
+      </c>
+      <c r="D44" t="s" s="262">
+        <v>16</v>
+      </c>
+      <c r="E44" t="s" s="263">
+        <v>14</v>
+      </c>
+      <c r="F44" t="s" s="264">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="265">
+        <v>66</v>
+      </c>
+      <c r="B45" t="s" s="266">
+        <v>23</v>
+      </c>
+      <c r="C45" t="s" s="267">
+        <v>17</v>
+      </c>
+      <c r="D45" t="s" s="268">
+        <v>23</v>
+      </c>
+      <c r="E45" t="s" s="269">
+        <v>14</v>
+      </c>
+      <c r="F45" t="s" s="270">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="271">
+        <v>67</v>
+      </c>
+      <c r="B46" t="s" s="272">
+        <v>16</v>
+      </c>
+      <c r="C46" t="s" s="273">
+        <v>12</v>
+      </c>
+      <c r="D46" t="s" s="274">
+        <v>16</v>
+      </c>
+      <c r="E46" t="s" s="275">
+        <v>68</v>
+      </c>
+      <c r="F46" t="s" s="276">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="277">
+        <v>69</v>
+      </c>
+      <c r="B47" t="s" s="278">
+        <v>16</v>
+      </c>
+      <c r="C47" t="s" s="279">
+        <v>17</v>
+      </c>
+      <c r="D47" t="s" s="280">
+        <v>16</v>
+      </c>
+      <c r="E47" t="s" s="281">
+        <v>14</v>
+      </c>
+      <c r="F47" t="s" s="282">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -2059,502 +2933,622 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="151">
+      <c r="A1" t="s" s="283">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="152">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="153">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="154">
-        <v>44</v>
-      </c>
-      <c r="E1" t="s" s="155">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="156">
+      <c r="B1" t="s" s="284">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="285">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="286">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s" s="287">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="288">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="289">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="290">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="291">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="292">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="293">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="294">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="295">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="296">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="297">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="298">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s" s="299">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s" s="300">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="301">
+        <v>72</v>
+      </c>
+      <c r="B4" t="s" s="302">
+        <v>20</v>
+      </c>
+      <c r="C4" t="s" s="303">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s" s="304">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s" s="305">
+        <v>73</v>
+      </c>
+      <c r="F4" t="s" s="306">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="307">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s" s="308">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s" s="309">
+        <v>21</v>
+      </c>
+      <c r="D5" t="s" s="310">
+        <v>23</v>
+      </c>
+      <c r="E5" t="s" s="311">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="312">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="313">
+        <v>75</v>
+      </c>
+      <c r="B6" t="s" s="314">
         <v>45</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="157">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="158">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="159">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="160">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="161">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="162">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="163">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="164">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="165">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s" s="166">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s" s="167">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s" s="168">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="169">
-        <v>46</v>
-      </c>
-      <c r="B4" t="s" s="170">
+      <c r="C6" t="s" s="315">
+        <v>17</v>
+      </c>
+      <c r="D6" t="s" s="316">
+        <v>23</v>
+      </c>
+      <c r="E6" t="s" s="317">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s" s="318">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="319">
+        <v>1</v>
+      </c>
+      <c r="B7" t="s" s="320">
+        <v>1</v>
+      </c>
+      <c r="C7" t="s" s="321">
+        <v>21</v>
+      </c>
+      <c r="D7" t="s" s="322">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s" s="323">
+        <v>14</v>
+      </c>
+      <c r="F7" t="s" s="324">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="325">
+        <v>76</v>
+      </c>
+      <c r="B8" t="s" s="326">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s" s="327">
+        <v>17</v>
+      </c>
+      <c r="D8" t="s" s="328">
+        <v>23</v>
+      </c>
+      <c r="E8" t="s" s="329">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s" s="330">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="331">
+        <v>78</v>
+      </c>
+      <c r="B9" t="s" s="332">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s" s="333">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s" s="334">
+        <v>16</v>
+      </c>
+      <c r="E9" t="s" s="335">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s" s="336">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="337">
+        <v>1</v>
+      </c>
+      <c r="B10" t="s" s="338">
+        <v>1</v>
+      </c>
+      <c r="C10" t="s" s="339">
+        <v>21</v>
+      </c>
+      <c r="D10" t="s" s="340">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s" s="341">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s" s="342">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="343">
+        <v>79</v>
+      </c>
+      <c r="B11" t="s" s="344">
+        <v>16</v>
+      </c>
+      <c r="C11" t="s" s="345">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s" s="346">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s" s="347">
+        <v>31</v>
+      </c>
+      <c r="F11" t="s" s="348">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="349">
+        <v>80</v>
+      </c>
+      <c r="B12" t="s" s="350">
         <v>20</v>
       </c>
-      <c r="C4" t="s" s="171">
+      <c r="C12" t="s" s="351">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s" s="352">
+        <v>16</v>
+      </c>
+      <c r="E12" t="s" s="353">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s" s="354">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="355">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s" s="356">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s" s="357">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s" s="358">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s" s="359">
+        <v>14</v>
+      </c>
+      <c r="F13" t="s" s="360">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="361">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s" s="362">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s" s="363">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s" s="364">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s" s="365">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s" s="366">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="367">
+        <v>81</v>
+      </c>
+      <c r="B15" t="s" s="368">
+        <v>20</v>
+      </c>
+      <c r="C15" t="s" s="369">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s" s="370">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s" s="371">
+        <v>14</v>
+      </c>
+      <c r="F15" t="s" s="372">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="373">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s" s="374">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s" s="375">
         <v>17</v>
       </c>
-      <c r="D4" t="s" s="172">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s" s="173">
-        <v>47</v>
-      </c>
-      <c r="F4" t="s" s="174">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="175">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s" s="176">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s" s="177">
+      <c r="D16" t="s" s="376">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s" s="377">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s" s="378">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="379">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s" s="380">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s" s="381">
         <v>21</v>
       </c>
-      <c r="D5" t="s" s="178">
+      <c r="D17" t="s" s="382">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s" s="383">
+        <v>14</v>
+      </c>
+      <c r="F17" t="s" s="384">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="385">
+        <v>82</v>
+      </c>
+      <c r="B18" t="s" s="386">
+        <v>20</v>
+      </c>
+      <c r="C18" t="s" s="387">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s" s="388">
         <v>23</v>
       </c>
-      <c r="E5" t="s" s="179">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s" s="180">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="181">
-        <v>49</v>
-      </c>
-      <c r="B6" t="s" s="182">
-        <v>50</v>
-      </c>
-      <c r="C6" t="s" s="183">
+      <c r="E18" t="s" s="389">
+        <v>14</v>
+      </c>
+      <c r="F18" t="s" s="390">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="391">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s" s="392">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s" s="393">
+        <v>21</v>
+      </c>
+      <c r="D19" t="s" s="394">
+        <v>16</v>
+      </c>
+      <c r="E19" t="s" s="395">
+        <v>14</v>
+      </c>
+      <c r="F19" t="s" s="396">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="397">
+        <v>84</v>
+      </c>
+      <c r="B20" t="s" s="398">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s" s="399">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s" s="400">
+        <v>16</v>
+      </c>
+      <c r="E20" t="s" s="401">
+        <v>14</v>
+      </c>
+      <c r="F20" t="s" s="402">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="403">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s" s="404">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s" s="405">
         <v>17</v>
       </c>
-      <c r="D6" t="s" s="184">
+      <c r="D21" t="s" s="406">
+        <v>16</v>
+      </c>
+      <c r="E21" t="s" s="407">
+        <v>14</v>
+      </c>
+      <c r="F21" t="s" s="408">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="409">
+        <v>85</v>
+      </c>
+      <c r="B22" t="s" s="410">
+        <v>16</v>
+      </c>
+      <c r="C22" t="s" s="411">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s" s="412">
+        <v>16</v>
+      </c>
+      <c r="E22" t="s" s="413">
+        <v>86</v>
+      </c>
+      <c r="F22" t="s" s="414">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="415">
+        <v>84</v>
+      </c>
+      <c r="B23" t="s" s="416">
         <v>23</v>
       </c>
-      <c r="E6" t="s" s="185">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s" s="186">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="187">
-        <v>1</v>
-      </c>
-      <c r="B7" t="s" s="188">
-        <v>1</v>
-      </c>
-      <c r="C7" t="s" s="189">
+      <c r="C23" t="s" s="417">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s" s="418">
+        <v>16</v>
+      </c>
+      <c r="E23" t="s" s="419">
+        <v>14</v>
+      </c>
+      <c r="F23" t="s" s="420">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="421">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s" s="422">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s" s="423">
+        <v>17</v>
+      </c>
+      <c r="D24" t="s" s="424">
+        <v>16</v>
+      </c>
+      <c r="E24" t="s" s="425">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s" s="426">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="427">
+        <v>87</v>
+      </c>
+      <c r="B25" t="s" s="428">
+        <v>16</v>
+      </c>
+      <c r="C25" t="s" s="429">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s" s="430">
+        <v>16</v>
+      </c>
+      <c r="E25" t="s" s="431">
+        <v>14</v>
+      </c>
+      <c r="F25" t="s" s="432">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="433">
+        <v>88</v>
+      </c>
+      <c r="B26" t="s" s="434">
+        <v>16</v>
+      </c>
+      <c r="C26" t="s" s="435">
+        <v>12</v>
+      </c>
+      <c r="D26" t="s" s="436">
+        <v>16</v>
+      </c>
+      <c r="E26" t="s" s="437">
+        <v>14</v>
+      </c>
+      <c r="F26" t="s" s="438">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="439">
+        <v>89</v>
+      </c>
+      <c r="B27" t="s" s="440">
+        <v>20</v>
+      </c>
+      <c r="C27" t="s" s="441">
+        <v>17</v>
+      </c>
+      <c r="D27" t="s" s="442">
+        <v>20</v>
+      </c>
+      <c r="E27" t="s" s="443">
+        <v>14</v>
+      </c>
+      <c r="F27" t="s" s="444">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="445">
+        <v>90</v>
+      </c>
+      <c r="B28" t="s" s="446">
+        <v>91</v>
+      </c>
+      <c r="C28" t="s" s="447">
+        <v>12</v>
+      </c>
+      <c r="D28" t="s" s="448">
+        <v>45</v>
+      </c>
+      <c r="E28" t="s" s="449">
+        <v>14</v>
+      </c>
+      <c r="F28" t="s" s="450">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="451">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s" s="452">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s" s="453">
         <v>21</v>
       </c>
-      <c r="D7" t="s" s="190">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s" s="191">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s" s="192">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="193">
-        <v>51</v>
-      </c>
-      <c r="B8" t="s" s="194">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s" s="195">
-        <v>17</v>
-      </c>
-      <c r="D8" t="s" s="196">
-        <v>23</v>
-      </c>
-      <c r="E8" t="s" s="197">
-        <v>52</v>
-      </c>
-      <c r="F8" t="s" s="198">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="199">
-        <v>53</v>
-      </c>
-      <c r="B9" t="s" s="200">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s" s="201">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s" s="202">
-        <v>16</v>
-      </c>
-      <c r="E9" t="s" s="203">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s" s="204">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="205">
-        <v>1</v>
-      </c>
-      <c r="B10" t="s" s="206">
-        <v>1</v>
-      </c>
-      <c r="C10" t="s" s="207">
-        <v>21</v>
-      </c>
-      <c r="D10" t="s" s="208">
-        <v>16</v>
-      </c>
-      <c r="E10" t="s" s="209">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s" s="210">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="211">
-        <v>54</v>
-      </c>
-      <c r="B11" t="s" s="212">
-        <v>16</v>
-      </c>
-      <c r="C11" t="s" s="213">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s" s="214">
-        <v>16</v>
-      </c>
-      <c r="E11" t="s" s="215">
-        <v>31</v>
-      </c>
-      <c r="F11" t="s" s="216">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="217">
-        <v>55</v>
-      </c>
-      <c r="B12" t="s" s="218">
+      <c r="D29" t="s" s="454">
         <v>20</v>
       </c>
-      <c r="C12" t="s" s="219">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s" s="220">
-        <v>16</v>
-      </c>
-      <c r="E12" t="s" s="221">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s" s="222">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="223">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s" s="224">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s" s="225">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s" s="226">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s" s="227">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s" s="228">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="229">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s" s="230">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s" s="231">
-        <v>12</v>
-      </c>
-      <c r="D14" t="s" s="232">
-        <v>16</v>
-      </c>
-      <c r="E14" t="s" s="233">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s" s="234">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="235">
-        <v>56</v>
-      </c>
-      <c r="B15" t="s" s="236">
-        <v>20</v>
-      </c>
-      <c r="C15" t="s" s="237">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s" s="238">
-        <v>16</v>
-      </c>
-      <c r="E15" t="s" s="239">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s" s="240">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="241">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s" s="242">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s" s="243">
-        <v>17</v>
-      </c>
-      <c r="D16" t="s" s="244">
-        <v>16</v>
-      </c>
-      <c r="E16" t="s" s="245">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s" s="246">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="247">
-        <v>1</v>
-      </c>
-      <c r="B17" t="s" s="248">
-        <v>1</v>
-      </c>
-      <c r="C17" t="s" s="249">
-        <v>21</v>
-      </c>
-      <c r="D17" t="s" s="250">
-        <v>16</v>
-      </c>
-      <c r="E17" t="s" s="251">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s" s="252">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="253">
-        <v>57</v>
-      </c>
-      <c r="B18" t="s" s="254">
-        <v>20</v>
-      </c>
-      <c r="C18" t="s" s="255">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s" s="256">
-        <v>23</v>
-      </c>
-      <c r="E18" t="s" s="257">
-        <v>14</v>
-      </c>
-      <c r="F18" t="s" s="258">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="259">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s" s="260">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s" s="261">
-        <v>21</v>
-      </c>
-      <c r="D19" t="s" s="262">
-        <v>16</v>
-      </c>
-      <c r="E19" t="s" s="263">
-        <v>14</v>
-      </c>
-      <c r="F19" t="s" s="264">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="265">
-        <v>59</v>
-      </c>
-      <c r="B20" t="s" s="266">
-        <v>23</v>
-      </c>
-      <c r="C20" t="s" s="267">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s" s="268">
-        <v>16</v>
-      </c>
-      <c r="E20" t="s" s="269">
-        <v>14</v>
-      </c>
-      <c r="F20" t="s" s="270">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="271">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s" s="272">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s" s="273">
-        <v>17</v>
-      </c>
-      <c r="D21" t="s" s="274">
-        <v>16</v>
-      </c>
-      <c r="E21" t="s" s="275">
-        <v>14</v>
-      </c>
-      <c r="F21" t="s" s="276">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="277">
-        <v>60</v>
-      </c>
-      <c r="B22" t="s" s="278">
-        <v>16</v>
-      </c>
-      <c r="C22" t="s" s="279">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s" s="280">
-        <v>16</v>
-      </c>
-      <c r="E22" t="s" s="281">
-        <v>61</v>
-      </c>
-      <c r="F22" t="s" s="282">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="283">
-        <v>59</v>
-      </c>
-      <c r="B23" t="s" s="284">
-        <v>23</v>
-      </c>
-      <c r="C23" t="s" s="285">
-        <v>12</v>
-      </c>
-      <c r="D23" t="s" s="286">
-        <v>16</v>
-      </c>
-      <c r="E23" t="s" s="287">
-        <v>14</v>
-      </c>
-      <c r="F23" t="s" s="288">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="289">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s" s="290">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s" s="291">
-        <v>17</v>
-      </c>
-      <c r="D24" t="s" s="292">
-        <v>16</v>
-      </c>
-      <c r="E24" t="s" s="293">
-        <v>14</v>
-      </c>
-      <c r="F24" t="s" s="294">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="295">
-        <v>62</v>
-      </c>
-      <c r="B25" t="s" s="296">
-        <v>16</v>
-      </c>
-      <c r="C25" t="s" s="297">
-        <v>12</v>
-      </c>
-      <c r="D25" t="s" s="298">
-        <v>16</v>
-      </c>
-      <c r="E25" t="s" s="299">
-        <v>14</v>
-      </c>
-      <c r="F25" t="s" s="300">
+      <c r="E29" t="s" s="455">
+        <v>14</v>
+      </c>
+      <c r="F29" t="s" s="456">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="457">
+        <v>92</v>
+      </c>
+      <c r="B30" t="s" s="458">
+        <v>16</v>
+      </c>
+      <c r="C30" t="s" s="459">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s" s="460">
+        <v>16</v>
+      </c>
+      <c r="E30" t="s" s="461">
+        <v>14</v>
+      </c>
+      <c r="F30" t="s" s="462">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="463">
+        <v>93</v>
+      </c>
+      <c r="B31" t="s" s="464">
+        <v>16</v>
+      </c>
+      <c r="C31" t="s" s="465">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s" s="466">
+        <v>16</v>
+      </c>
+      <c r="E31" t="s" s="467">
+        <v>14</v>
+      </c>
+      <c r="F31" t="s" s="468">
         <v>14</v>
       </c>
     </row>
@@ -2584,262 +3578,342 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="301">
+      <c r="A1" t="s" s="469">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="302">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="303">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="304">
-        <v>63</v>
-      </c>
-      <c r="E1" t="s" s="305">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="306">
-        <v>64</v>
+      <c r="B1" t="s" s="470">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="471">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="472">
+        <v>94</v>
+      </c>
+      <c r="E1" t="s" s="473">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="474">
+        <v>95</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="307">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="308">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="309">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="310">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="311">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="312">
+      <c r="A2" t="s" s="475">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="476">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="477">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="478">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="479">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="480">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="313">
+      <c r="A3" t="s" s="481">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="314">
+      <c r="B3" t="s" s="482">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="315">
+      <c r="C3" t="s" s="483">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="316">
+      <c r="D3" t="s" s="484">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="317">
+      <c r="E3" t="s" s="485">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="318">
+      <c r="F3" t="s" s="486">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="319">
-        <v>65</v>
-      </c>
-      <c r="B4" t="s" s="320">
+      <c r="A4" t="s" s="487">
+        <v>96</v>
+      </c>
+      <c r="B4" t="s" s="488">
         <v>20</v>
       </c>
-      <c r="C4" t="s" s="321">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s" s="322">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s" s="323">
-        <v>66</v>
-      </c>
-      <c r="F4" t="s" s="324">
+      <c r="C4" t="s" s="489">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="490">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s" s="491">
+        <v>97</v>
+      </c>
+      <c r="F4" t="s" s="492">
         <v>14</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="325">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s" s="326">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s" s="327">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s" s="328">
-        <v>16</v>
-      </c>
-      <c r="E5" t="s" s="329">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s" s="330">
+      <c r="A5" t="s" s="493">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s" s="494">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s" s="495">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="496">
+        <v>16</v>
+      </c>
+      <c r="E5" t="s" s="497">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="498">
         <v>14</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="331">
-        <v>1</v>
-      </c>
-      <c r="B6" t="s" s="332">
-        <v>1</v>
-      </c>
-      <c r="C6" t="s" s="333">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s" s="334">
-        <v>16</v>
-      </c>
-      <c r="E6" t="s" s="335">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s" s="336">
+      <c r="A6" t="s" s="499">
+        <v>1</v>
+      </c>
+      <c r="B6" t="s" s="500">
+        <v>1</v>
+      </c>
+      <c r="C6" t="s" s="501">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="502">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s" s="503">
+        <v>14</v>
+      </c>
+      <c r="F6" t="s" s="504">
         <v>14</v>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="s" s="337">
-        <v>67</v>
-      </c>
-      <c r="B7" t="s" s="338">
+      <c r="A7" t="s" s="505">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s" s="506">
         <v>20</v>
       </c>
-      <c r="C7" t="s" s="339">
+      <c r="C7" t="s" s="507">
         <v>17</v>
       </c>
-      <c r="D7" t="s" s="340">
+      <c r="D7" t="s" s="508">
         <v>20</v>
       </c>
-      <c r="E7" t="s" s="341">
-        <v>68</v>
-      </c>
-      <c r="F7" t="s" s="342">
+      <c r="E7" t="s" s="509">
+        <v>99</v>
+      </c>
+      <c r="F7" t="s" s="510">
         <v>14</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="s" s="343">
-        <v>69</v>
-      </c>
-      <c r="B8" t="s" s="344">
-        <v>16</v>
-      </c>
-      <c r="C8" t="s" s="345">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s" s="346">
-        <v>16</v>
-      </c>
-      <c r="E8" t="s" s="347">
-        <v>70</v>
-      </c>
-      <c r="F8" t="s" s="348">
+      <c r="A8" t="s" s="511">
+        <v>100</v>
+      </c>
+      <c r="B8" t="s" s="512">
+        <v>16</v>
+      </c>
+      <c r="C8" t="s" s="513">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s" s="514">
+        <v>16</v>
+      </c>
+      <c r="E8" t="s" s="515">
+        <v>101</v>
+      </c>
+      <c r="F8" t="s" s="516">
         <v>14</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="s" s="349">
-        <v>71</v>
-      </c>
-      <c r="B9" t="s" s="350">
-        <v>72</v>
-      </c>
-      <c r="C9" t="s" s="351">
+      <c r="A9" t="s" s="517">
+        <v>102</v>
+      </c>
+      <c r="B9" t="s" s="518">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s" s="519">
         <v>21</v>
       </c>
-      <c r="D9" t="s" s="352">
-        <v>72</v>
-      </c>
-      <c r="E9" t="s" s="353">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s" s="354">
-        <v>73</v>
+      <c r="D9" t="s" s="520">
+        <v>103</v>
+      </c>
+      <c r="E9" t="s" s="521">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s" s="522">
+        <v>104</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="s" s="355">
-        <v>74</v>
-      </c>
-      <c r="B10" t="s" s="356">
+      <c r="A10" t="s" s="523">
+        <v>105</v>
+      </c>
+      <c r="B10" t="s" s="524">
         <v>23</v>
       </c>
-      <c r="C10" t="s" s="357">
-        <v>12</v>
-      </c>
-      <c r="D10" t="s" s="358">
+      <c r="C10" t="s" s="525">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s" s="526">
         <v>23</v>
       </c>
-      <c r="E10" t="s" s="359">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s" s="360">
+      <c r="E10" t="s" s="527">
+        <v>14</v>
+      </c>
+      <c r="F10" t="s" s="528">
         <v>14</v>
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="s" s="361">
-        <v>75</v>
-      </c>
-      <c r="B11" t="s" s="362">
+      <c r="A11" t="s" s="529">
+        <v>106</v>
+      </c>
+      <c r="B11" t="s" s="530">
         <v>23</v>
       </c>
-      <c r="C11" t="s" s="363">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s" s="364">
+      <c r="C11" t="s" s="531">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s" s="532">
         <v>23</v>
       </c>
-      <c r="E11" t="s" s="365">
-        <v>76</v>
-      </c>
-      <c r="F11" t="s" s="366">
+      <c r="E11" t="s" s="533">
+        <v>107</v>
+      </c>
+      <c r="F11" t="s" s="534">
         <v>14</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="s" s="367">
-        <v>77</v>
-      </c>
-      <c r="B12" t="s" s="368">
+      <c r="A12" t="s" s="535">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s" s="536">
         <v>20</v>
       </c>
-      <c r="C12" t="s" s="369">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s" s="370">
+      <c r="C12" t="s" s="537">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s" s="538">
         <v>23</v>
       </c>
-      <c r="E12" t="s" s="371">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s" s="372">
+      <c r="E12" t="s" s="539">
+        <v>14</v>
+      </c>
+      <c r="F12" t="s" s="540">
         <v>14</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="s" s="373">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s" s="374">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s" s="375">
+      <c r="A13" t="s" s="541">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s" s="542">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s" s="543">
         <v>17</v>
       </c>
-      <c r="D13" t="s" s="376">
-        <v>16</v>
-      </c>
-      <c r="E13" t="s" s="377">
-        <v>78</v>
-      </c>
-      <c r="F13" t="s" s="378">
+      <c r="D13" t="s" s="544">
+        <v>16</v>
+      </c>
+      <c r="E13" t="s" s="545">
+        <v>109</v>
+      </c>
+      <c r="F13" t="s" s="546">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="547">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s" s="548">
+        <v>16</v>
+      </c>
+      <c r="C14" t="s" s="549">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s" s="550">
+        <v>16</v>
+      </c>
+      <c r="E14" t="s" s="551">
+        <v>14</v>
+      </c>
+      <c r="F14" t="s" s="552">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="553">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s" s="554">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s" s="555">
+        <v>21</v>
+      </c>
+      <c r="D15" t="s" s="556">
+        <v>16</v>
+      </c>
+      <c r="E15" t="s" s="557">
+        <v>112</v>
+      </c>
+      <c r="F15" t="s" s="558">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="559">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s" s="560">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s" s="561">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s" s="562">
+        <v>16</v>
+      </c>
+      <c r="E16" t="s" s="563">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s" s="564">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="565">
+        <v>115</v>
+      </c>
+      <c r="B17" t="s" s="566">
+        <v>23</v>
+      </c>
+      <c r="C17" t="s" s="567">
+        <v>17</v>
+      </c>
+      <c r="D17" t="s" s="568">
+        <v>23</v>
+      </c>
+      <c r="E17" t="s" s="569">
+        <v>116</v>
+      </c>
+      <c r="F17" t="s" s="570">
         <v>14</v>
       </c>
     </row>

--- a/Application/PackerReports (03 Oct 2016).xlsx
+++ b/Application/PackerReports (03 Oct 2016).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="35">
   <si>
     <t>Doorstep Chef Packer Sheet  Week: 9</t>
   </si>
@@ -46,51 +46,42 @@
     <t>Exclutions</t>
   </si>
   <si>
-    <t>Selena Gomez</t>
+    <t>Darth Vader</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Low Carb</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Afro Jack</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Jalapenoes</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>No Ariana</t>
-  </si>
-  <si>
-    <t>Or Grande</t>
-  </si>
-  <si>
-    <t>Darth Vader</t>
-  </si>
-  <si>
-    <t>5</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Low Carb</t>
-  </si>
-  <si>
-    <t>1</t>
-  </si>
-  <si>
-    <t>Afro Jack</t>
-  </si>
-  <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>Jalapenoes</t>
-  </si>
-  <si>
     <t>Michael - 012 345 6789</t>
   </si>
   <si>
@@ -112,12 +103,6 @@
     <t>No greens</t>
   </si>
   <si>
-    <t>Adam Lavine</t>
-  </si>
-  <si>
-    <t>Leave the tomatoes</t>
-  </si>
-  <si>
     <t>Rossouw Binedell</t>
   </si>
   <si>
@@ -128,12 +113,6 @@
   </si>
   <si>
     <t>Route: 2</t>
-  </si>
-  <si>
-    <t>Rita Ora</t>
-  </si>
-  <si>
-    <t>No Cocaine</t>
   </si>
   <si>
     <t>Astrix Oblix</t>
@@ -734,7 +713,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="139">
+  <cellXfs count="115">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -778,16 +757,6 @@
     <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
       <alignment horizontal="center"/>
@@ -910,26 +879,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
       <alignment horizontal="center"/>
@@ -982,16 +931,6 @@
     <xf numFmtId="0" fontId="54" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
       <alignment horizontal="center"/>
@@ -1014,12 +953,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.1875" customWidth="true"/>
+    <col min="1" max="1" width="11.25" customWidth="true"/>
     <col min="2" max="2" width="7.5" customWidth="true"/>
     <col min="3" max="3" width="9.375" customWidth="true"/>
     <col min="4" max="4" width="3.75" customWidth="true"/>
-    <col min="5" max="5" width="26.5625" customWidth="true"/>
-    <col min="6" max="6" width="26.5625" customWidth="true"/>
+    <col min="5" max="5" width="27.03125" customWidth="true"/>
+    <col min="6" max="6" width="27.03125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1093,10 +1032,10 @@
         <v>12</v>
       </c>
       <c r="D4" t="s" s="22">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E4" t="s" s="23">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s" s="24">
         <v>14</v>
@@ -1104,62 +1043,62 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="25">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s" s="26">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s" s="27">
         <v>15</v>
       </c>
-      <c r="B5" t="s" s="26">
+      <c r="D5" t="s" s="28">
         <v>16</v>
       </c>
-      <c r="C5" t="s" s="27">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s" s="28">
-        <v>17</v>
-      </c>
       <c r="E5" t="s" s="29">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s" s="30">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="31">
-        <v>1</v>
+        <v>17</v>
       </c>
       <c r="B6" t="s" s="32">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C6" t="s" s="33">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="D6" t="s" s="34">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s" s="35">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="F6" t="s" s="36">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="37">
-        <v>21</v>
+        <v>1</v>
       </c>
       <c r="B7" t="s" s="38">
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="C7" t="s" s="39">
         <v>12</v>
       </c>
       <c r="D7" t="s" s="40">
+        <v>19</v>
+      </c>
+      <c r="E7" t="s" s="41">
         <v>20</v>
       </c>
-      <c r="E7" t="s" s="41">
-        <v>18</v>
-      </c>
       <c r="F7" t="s" s="42">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
@@ -1173,33 +1112,13 @@
         <v>12</v>
       </c>
       <c r="D8" t="s" s="46">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E8" t="s" s="47">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F8" t="s" s="48">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="49">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s" s="50">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s" s="51">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s" s="52">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s" s="53">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s" s="54">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1228,183 +1147,143 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="55">
+      <c r="A1" t="s" s="49">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="56">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="57">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="58">
+      <c r="B1" t="s" s="50">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="51">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="52">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s" s="53">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="54">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="55">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="56">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="57">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="58">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="59">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="60">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="61">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="62">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="63">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="64">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s" s="65">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s" s="66">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="67">
+        <v>24</v>
+      </c>
+      <c r="B4" t="s" s="68">
         <v>25</v>
       </c>
-      <c r="E1" t="s" s="59">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="60">
+      <c r="C4" t="s" s="69">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s" s="70">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s" s="71">
+        <v>14</v>
+      </c>
+      <c r="F4" t="s" s="72">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="73">
+        <v>1</v>
+      </c>
+      <c r="B5" t="s" s="74">
+        <v>1</v>
+      </c>
+      <c r="C5" t="s" s="75">
         <v>26</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="61">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="62">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="63">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="64">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="65">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="66">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="67">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="68">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="69">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s" s="70">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s" s="71">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s" s="72">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="73">
+      <c r="D5" t="s" s="76">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s" s="77">
+        <v>14</v>
+      </c>
+      <c r="F5" t="s" s="78">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="79">
         <v>27</v>
       </c>
-      <c r="B4" t="s" s="74">
+      <c r="B6" t="s" s="80">
+        <v>16</v>
+      </c>
+      <c r="C6" t="s" s="81">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="82">
+        <v>16</v>
+      </c>
+      <c r="E6" t="s" s="83">
         <v>28</v>
       </c>
-      <c r="C4" t="s" s="75">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s" s="76">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="77">
-        <v>18</v>
-      </c>
-      <c r="F4" t="s" s="78">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="79">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s" s="80">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s" s="81">
+      <c r="F6" t="s" s="84">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="85">
         <v>29</v>
       </c>
-      <c r="D5" t="s" s="82">
+      <c r="B7" t="s" s="86">
         <v>16</v>
       </c>
-      <c r="E5" t="s" s="83">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s" s="84">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="85">
+      <c r="C7" t="s" s="87">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s" s="88">
+        <v>16</v>
+      </c>
+      <c r="E7" t="s" s="89">
         <v>30</v>
       </c>
-      <c r="B6" t="s" s="86">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s" s="87">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s" s="88">
-        <v>20</v>
-      </c>
-      <c r="E6" t="s" s="89">
-        <v>31</v>
-      </c>
-      <c r="F6" t="s" s="90">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="91">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s" s="92">
-        <v>23</v>
-      </c>
-      <c r="C7" t="s" s="93">
-        <v>19</v>
-      </c>
-      <c r="D7" t="s" s="94">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s" s="95">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s" s="96">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="97">
-        <v>1</v>
-      </c>
-      <c r="B8" t="s" s="98">
-        <v>1</v>
-      </c>
-      <c r="C8" t="s" s="99">
-        <v>29</v>
-      </c>
-      <c r="D8" t="s" s="100">
-        <v>20</v>
-      </c>
-      <c r="E8" t="s" s="101">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s" s="102">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="103">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s" s="104">
-        <v>20</v>
-      </c>
-      <c r="C9" t="s" s="105">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s" s="106">
-        <v>20</v>
-      </c>
-      <c r="E9" t="s" s="107">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s" s="108">
-        <v>18</v>
+      <c r="F7" t="s" s="90">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -1433,103 +1312,83 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="109">
+      <c r="A1" t="s" s="91">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="110">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="111">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="112">
-        <v>36</v>
-      </c>
-      <c r="E1" t="s" s="113">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="114">
-        <v>37</v>
+      <c r="B1" t="s" s="92">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="93">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="94">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s" s="95">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="96">
+        <v>32</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="115">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="116">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="117">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="118">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="119">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="120">
+      <c r="A2" t="s" s="97">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="98">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="99">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="100">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="101">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="102">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="121">
+      <c r="A3" t="s" s="103">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="122">
+      <c r="B3" t="s" s="104">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="123">
+      <c r="C3" t="s" s="105">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="124">
+      <c r="D3" t="s" s="106">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="125">
+      <c r="E3" t="s" s="107">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="126">
+      <c r="F3" t="s" s="108">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="127">
-        <v>38</v>
-      </c>
-      <c r="B4" t="s" s="128">
-        <v>23</v>
-      </c>
-      <c r="C4" t="s" s="129">
-        <v>19</v>
-      </c>
-      <c r="D4" t="s" s="130">
-        <v>23</v>
-      </c>
-      <c r="E4" t="s" s="131">
-        <v>39</v>
-      </c>
-      <c r="F4" t="s" s="132">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="133">
-        <v>40</v>
-      </c>
-      <c r="B5" t="s" s="134">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s" s="135">
+      <c r="A4" t="s" s="109">
+        <v>33</v>
+      </c>
+      <c r="B4" t="s" s="110">
+        <v>21</v>
+      </c>
+      <c r="C4" t="s" s="111">
         <v>12</v>
       </c>
-      <c r="D5" t="s" s="136">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s" s="137">
-        <v>41</v>
-      </c>
-      <c r="F5" t="s" s="138">
-        <v>18</v>
+      <c r="D4" t="s" s="112">
+        <v>21</v>
+      </c>
+      <c r="E4" t="s" s="113">
+        <v>34</v>
+      </c>
+      <c r="F4" t="s" s="114">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Application/PackerReports (03 Oct 2016).xlsx
+++ b/Application/PackerReports (03 Oct 2016).xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="35">
-  <si>
-    <t>Doorstep Chef Packer Sheet  Week: 9</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="151">
+  <si>
+    <t>Doorstep Chef Packer Sheet</t>
   </si>
   <si>
     <t/>
@@ -25,7 +25,7 @@
     <t>Collection - -</t>
   </si>
   <si>
-    <t>Route: 0</t>
+    <t xml:space="preserve"> Week: 9 Route: 0</t>
   </si>
   <si>
     <t>Customer</t>
@@ -46,79 +46,427 @@
     <t>Exclutions</t>
   </si>
   <si>
+    <t>Keanu Arendze</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Meat</t>
+  </si>
+  <si>
+    <t>Fish once a week and no tough meat</t>
+  </si>
+  <si>
+    <t>Johnny Depp</t>
+  </si>
+  <si>
+    <t>Low Carb</t>
+  </si>
+  <si>
+    <t>Pistachios</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Jimmy Olsen</t>
+  </si>
+  <si>
+    <t>Meryl Streep</t>
+  </si>
+  <si>
+    <t>Rowena Ravenclaw</t>
+  </si>
+  <si>
+    <t>Albus Dumbledore</t>
+  </si>
+  <si>
+    <t>Ginny Weasly</t>
+  </si>
+  <si>
+    <t>Luna Lovegood</t>
+  </si>
+  <si>
+    <t>Neville Longbottom</t>
+  </si>
+  <si>
+    <t>Tom Marvolo (AKA Lord Voldormort) Riddle</t>
+  </si>
+  <si>
+    <t>Peter Petagru</t>
+  </si>
+  <si>
+    <t>Mushrooms</t>
+  </si>
+  <si>
+    <t>Sirius Black</t>
+  </si>
+  <si>
+    <t>Karel Bremmer</t>
+  </si>
+  <si>
+    <t>Luntu Arendze</t>
+  </si>
+  <si>
+    <t>No Nuts</t>
+  </si>
+  <si>
+    <t>dbjfcad</t>
+  </si>
+  <si>
+    <t>Dane Left</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>No Red's</t>
+  </si>
+  <si>
+    <t>Raspberries</t>
+  </si>
+  <si>
+    <t>Selena Gomez</t>
+  </si>
+  <si>
+    <t>No Ariana</t>
+  </si>
+  <si>
+    <t>Or Grande</t>
+  </si>
+  <si>
+    <t>Liam Neeson</t>
+  </si>
+  <si>
+    <t>No cake</t>
+  </si>
+  <si>
+    <t>Rene Woodford</t>
+  </si>
+  <si>
+    <t>Danny Zuko</t>
+  </si>
+  <si>
+    <t>Strawberries</t>
+  </si>
+  <si>
+    <t>James Potter</t>
+  </si>
+  <si>
+    <t>Michael Jackson</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Kiddies</t>
+  </si>
+  <si>
+    <t>Kim Possible</t>
+  </si>
+  <si>
+    <t>Draco Malfoy</t>
+  </si>
+  <si>
+    <t>Ronald Weasly</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Dudley Dursley</t>
+  </si>
+  <si>
     <t>Darth Vader</t>
   </si>
   <si>
     <t>5</t>
   </si>
   <si>
-    <t>Standard</t>
-  </si>
-  <si>
-    <t>4</t>
-  </si>
-  <si>
-    <t>-</t>
-  </si>
-  <si>
-    <t>Low Carb</t>
-  </si>
-  <si>
-    <t>1</t>
+    <t>Seth Rogen</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>No Meat</t>
+  </si>
+  <si>
+    <t>Bonnie Clyde</t>
+  </si>
+  <si>
+    <t>No onions</t>
+  </si>
+  <si>
+    <t>No greens</t>
+  </si>
+  <si>
+    <t>No strawberries</t>
+  </si>
+  <si>
+    <t>No jam</t>
+  </si>
+  <si>
+    <t>No olives</t>
+  </si>
+  <si>
+    <t>no grapes</t>
   </si>
   <si>
     <t>Afro Jack</t>
   </si>
   <si>
-    <t>6</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
     <t>Jalapenoes</t>
   </si>
   <si>
-    <t>2</t>
+    <t>George Washington</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Walnuts</t>
+  </si>
+  <si>
+    <t>Peanuts</t>
+  </si>
+  <si>
+    <t>Robin Hood</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Clients: 33</t>
+  </si>
+  <si>
+    <t>Standard: 48</t>
+  </si>
+  <si>
+    <t>Low Carb:  36</t>
+  </si>
+  <si>
+    <t>Kiddies: 5</t>
+  </si>
+  <si>
+    <t>Single: 36</t>
+  </si>
+  <si>
+    <t>Couple:  5</t>
+  </si>
+  <si>
+    <t>Small(3): 2</t>
+  </si>
+  <si>
+    <t>Medium(4): 3</t>
+  </si>
+  <si>
+    <t>Large(5):  2</t>
+  </si>
+  <si>
+    <t>XLarge(6): 0</t>
+  </si>
+  <si>
+    <t>Thu Oct 2016 17:48:42</t>
   </si>
   <si>
     <t>Michael - 012 345 6789</t>
   </si>
   <si>
-    <t>Route: 1</t>
+    <t xml:space="preserve"> Week: 9 Route: 1</t>
+  </si>
+  <si>
+    <t>Donald Trump</t>
+  </si>
+  <si>
+    <t>Rossouw Binedell</t>
+  </si>
+  <si>
+    <t>Just one cause I'm a loner</t>
+  </si>
+  <si>
+    <t>Alan Walker</t>
+  </si>
+  <si>
+    <t>Christiaan Barnard</t>
+  </si>
+  <si>
+    <t>Chloe Sullivan</t>
+  </si>
+  <si>
+    <t>Hermione Granger</t>
+  </si>
+  <si>
+    <t>Florence NightingGale</t>
+  </si>
+  <si>
+    <t>No Salt</t>
+  </si>
+  <si>
+    <t>White Shadow</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio</t>
+  </si>
+  <si>
+    <t>James Earl Jones</t>
+  </si>
+  <si>
+    <t>No nuts</t>
+  </si>
+  <si>
+    <t>No green foods.</t>
+  </si>
+  <si>
+    <t>Lone Ranger</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Adam Lavine</t>
+  </si>
+  <si>
+    <t>Leave the tomatoes</t>
+  </si>
+  <si>
+    <t>Amanda Bynes</t>
   </si>
   <si>
     <t>Harison Ford</t>
   </si>
   <si>
-    <t>7</t>
-  </si>
-  <si>
-    <t>Kiddies</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>No greens</t>
-  </si>
-  <si>
-    <t>Rossouw Binedell</t>
-  </si>
-  <si>
-    <t>Just one cause I'm a loner</t>
+    <t>Kendral Jennar</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>No cheese</t>
+  </si>
+  <si>
+    <t>Clients: 18</t>
+  </si>
+  <si>
+    <t>Standard: 20</t>
+  </si>
+  <si>
+    <t>Low Carb:  39</t>
+  </si>
+  <si>
+    <t>Kiddies: 13</t>
+  </si>
+  <si>
+    <t>Single: 20</t>
+  </si>
+  <si>
+    <t>Couple:  4</t>
+  </si>
+  <si>
+    <t>Medium(4): 0</t>
+  </si>
+  <si>
+    <t>Large(5):  1</t>
   </si>
   <si>
     <t>Keanu - 987 654 3210</t>
   </si>
   <si>
-    <t>Route: 2</t>
+    <t xml:space="preserve"> Week: 9 Route: 2</t>
+  </si>
+  <si>
+    <t>Bugs Bunny</t>
+  </si>
+  <si>
+    <t>no rabbit</t>
+  </si>
+  <si>
+    <t>Charlie Sheen</t>
+  </si>
+  <si>
+    <t>King Kong</t>
   </si>
   <si>
     <t>Astrix Oblix</t>
   </si>
   <si>
     <t>Just boar</t>
+  </si>
+  <si>
+    <t>Billy Joel</t>
+  </si>
+  <si>
+    <t>Oysters</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>Raisens</t>
+  </si>
+  <si>
+    <t>Sydney White</t>
+  </si>
+  <si>
+    <t>Grapes</t>
+  </si>
+  <si>
+    <t>Indianah Jones</t>
+  </si>
+  <si>
+    <t>no snakes</t>
+  </si>
+  <si>
+    <t>Rita Ora</t>
+  </si>
+  <si>
+    <t>No Cocaine</t>
+  </si>
+  <si>
+    <t>Ellen TheGenarous</t>
+  </si>
+  <si>
+    <t>Absolutely no nuts</t>
+  </si>
+  <si>
+    <t>No Green Things</t>
+  </si>
+  <si>
+    <t>Albert Van Dame</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Extra sweet</t>
+  </si>
+  <si>
+    <t>Clients: 12</t>
+  </si>
+  <si>
+    <t>Standard: 18</t>
+  </si>
+  <si>
+    <t>Low Carb:  7</t>
+  </si>
+  <si>
+    <t>Kiddies: 24</t>
+  </si>
+  <si>
+    <t>Single: 11</t>
+  </si>
+  <si>
+    <t>Small(3): 1</t>
   </si>
 </sst>
 </file>
@@ -126,7 +474,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="55">
+  <fonts count="58">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
@@ -232,6 +580,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="13.0"/>
       <b val="true"/>
     </font>
@@ -328,6 +681,11 @@
     </font>
     <font>
       <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
       <sz val="13.0"/>
       <b val="true"/>
     </font>
@@ -420,6 +778,11 @@
       <name val="Calibri"/>
       <sz val="11.0"/>
       <color indexed="9"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
       <b val="true"/>
     </font>
   </fonts>
@@ -439,7 +802,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -654,16 +1017,44 @@
       </bottom>
     </border>
     <border>
-      <left style="medium">
+      <left style="thin">
         <color indexed="8"/>
       </left>
-      <right style="thin">
+      <right style="medium">
         <color indexed="8"/>
       </right>
       <top>
         <color indexed="8"/>
       </top>
-      <bottom style="medium">
+      <bottom>
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
         <color indexed="8"/>
       </bottom>
     </border>
@@ -674,6 +1065,20 @@
       <right style="thin">
         <color indexed="8"/>
       </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
       <top style="thin">
         <color indexed="8"/>
       </top>
@@ -708,12 +1113,57 @@
       <bottom style="medium">
         <color indexed="8"/>
       </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top>
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="medium">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="medium"/>
+    </border>
+    <border>
+      <right style="medium"/>
+    </border>
+    <border>
+      <left style="medium"/>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <bottom style="medium"/>
+    </border>
+    <border>
+      <right style="medium"/>
+      <bottom style="medium"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="115">
+  <cellXfs count="676">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -765,75 +1215,725 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="29" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="30" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="31" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="32" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
@@ -849,76 +1949,456 @@
     <xf numFmtId="0" fontId="36" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="37" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="26" xfId="0" applyBorder="true" applyFont="true"/>
     <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="27" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="29" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="30" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="42" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="true"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="50" fillId="0" borderId="0" xfId="0" applyFont="true">
       <alignment horizontal="right" vertical="justify"/>
     </xf>
-    <xf numFmtId="0" fontId="49" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="50" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="51" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
@@ -931,16 +2411,281 @@
     <xf numFmtId="0" fontId="54" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="55" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="56" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="26" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="27" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="0" xfId="0" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="27" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="29" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="29" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="57" fillId="0" borderId="30" xfId="0" applyBorder="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
 </styleSheet>
 </file>
@@ -953,12 +2698,12 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="11.25" customWidth="true"/>
+    <col min="1" max="1" width="38.4375" customWidth="true"/>
     <col min="2" max="2" width="7.5" customWidth="true"/>
     <col min="3" max="3" width="9.375" customWidth="true"/>
     <col min="4" max="4" width="3.75" customWidth="true"/>
-    <col min="5" max="5" width="27.03125" customWidth="true"/>
-    <col min="6" max="6" width="27.03125" customWidth="true"/>
+    <col min="5" max="5" width="13.4375" customWidth="true"/>
+    <col min="6" max="6" width="13.4375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1032,10 +2777,10 @@
         <v>12</v>
       </c>
       <c r="D4" t="s" s="22">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="23">
         <v>13</v>
-      </c>
-      <c r="E4" t="s" s="23">
-        <v>14</v>
       </c>
       <c r="F4" t="s" s="24">
         <v>14</v>
@@ -1043,88 +2788,1017 @@
     </row>
     <row r="5">
       <c r="A5" t="s" s="25">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s" s="26">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C5" t="s" s="27">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D5" t="s" s="28">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E5" t="s" s="29">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F5" t="s" s="30">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="31">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B6" t="s" s="32">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="C6" t="s" s="33">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s" s="34">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="E6" t="s" s="35">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F6" t="s" s="36">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="37">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s" s="38">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C7" t="s" s="39">
         <v>12</v>
       </c>
       <c r="D7" t="s" s="40">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="E7" t="s" s="41">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s" s="42">
-        <v>14</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="43">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s" s="44">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C8" t="s" s="45">
         <v>12</v>
       </c>
       <c r="D8" t="s" s="46">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="E8" t="s" s="47">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="F8" t="s" s="48">
-        <v>14</v>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="49">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s" s="50">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s" s="51">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s" s="52">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s" s="53">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s" s="54">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="55">
+        <v>23</v>
+      </c>
+      <c r="B10" t="s" s="56">
+        <v>11</v>
+      </c>
+      <c r="C10" t="s" s="57">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s" s="58">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s" s="59">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s" s="60">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="61">
+        <v>24</v>
+      </c>
+      <c r="B11" t="s" s="62">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s" s="63">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s" s="64">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s" s="65">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s" s="66">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="67">
+        <v>25</v>
+      </c>
+      <c r="B12" t="s" s="68">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s" s="69">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s" s="70">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s" s="71">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s" s="72">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="73">
+        <v>26</v>
+      </c>
+      <c r="B13" t="s" s="74">
+        <v>11</v>
+      </c>
+      <c r="C13" t="s" s="75">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s" s="76">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s" s="77">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s" s="78">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="79">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s" s="80">
+        <v>11</v>
+      </c>
+      <c r="C14" t="s" s="81">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s" s="82">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s" s="83">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s" s="84">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="85">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s" s="86">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s" s="87">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s" s="88">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s" s="89">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s" s="90">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="91">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s" s="92">
+        <v>11</v>
+      </c>
+      <c r="C16" t="s" s="93">
+        <v>12</v>
+      </c>
+      <c r="D16" t="s" s="94">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s" s="95">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s" s="96">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="97">
+        <v>31</v>
+      </c>
+      <c r="B17" t="s" s="98">
+        <v>11</v>
+      </c>
+      <c r="C17" t="s" s="99">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s" s="100">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s" s="101">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s" s="102">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="103">
+        <v>10</v>
+      </c>
+      <c r="B18" t="s" s="104">
+        <v>11</v>
+      </c>
+      <c r="C18" t="s" s="105">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s" s="106">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s" s="107">
+        <v>33</v>
+      </c>
+      <c r="F18" t="s" s="108">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="109">
+        <v>34</v>
+      </c>
+      <c r="B19" t="s" s="110">
+        <v>35</v>
+      </c>
+      <c r="C19" t="s" s="111">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s" s="112">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s" s="113">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s" s="114">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="115">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s" s="116">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s" s="117">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s" s="118">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s" s="119">
+        <v>37</v>
+      </c>
+      <c r="F20" t="s" s="120">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="121">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s" s="122">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s" s="123">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s" s="124">
+        <v>35</v>
+      </c>
+      <c r="E21" t="s" s="125">
+        <v>39</v>
+      </c>
+      <c r="F21" t="s" s="126">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="127">
+        <v>41</v>
+      </c>
+      <c r="B22" t="s" s="128">
+        <v>35</v>
+      </c>
+      <c r="C22" t="s" s="129">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s" s="130">
+        <v>35</v>
+      </c>
+      <c r="E22" t="s" s="131">
+        <v>42</v>
+      </c>
+      <c r="F22" t="s" s="132">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="133">
+        <v>43</v>
+      </c>
+      <c r="B23" t="s" s="134">
+        <v>35</v>
+      </c>
+      <c r="C23" t="s" s="135">
+        <v>12</v>
+      </c>
+      <c r="D23" t="s" s="136">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s" s="137">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s" s="138">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="139">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s" s="140">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s" s="141">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s" s="142">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s" s="143">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s" s="144">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="145">
+        <v>44</v>
+      </c>
+      <c r="B25" t="s" s="146">
+        <v>35</v>
+      </c>
+      <c r="C25" t="s" s="147">
+        <v>12</v>
+      </c>
+      <c r="D25" t="s" s="148">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s" s="149">
+        <v>45</v>
+      </c>
+      <c r="F25" t="s" s="150">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="151">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s" s="152">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s" s="153">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s" s="154">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s" s="155">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s" s="156">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="157">
+        <v>46</v>
+      </c>
+      <c r="B27" t="s" s="158">
+        <v>35</v>
+      </c>
+      <c r="C27" t="s" s="159">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s" s="160">
+        <v>35</v>
+      </c>
+      <c r="E27" t="s" s="161">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s" s="162">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="163">
+        <v>47</v>
+      </c>
+      <c r="B28" t="s" s="164">
+        <v>48</v>
+      </c>
+      <c r="C28" t="s" s="165">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s" s="166">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s" s="167">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s" s="168">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="169">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s" s="170">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s" s="171">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s" s="172">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s" s="173">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s" s="174">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="175">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s" s="176">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s" s="177">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s" s="178">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s" s="179">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s" s="180">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="181">
+        <v>50</v>
+      </c>
+      <c r="B31" t="s" s="182">
+        <v>48</v>
+      </c>
+      <c r="C31" t="s" s="183">
+        <v>12</v>
+      </c>
+      <c r="D31" t="s" s="184">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s" s="185">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s" s="186">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="187">
+        <v>1</v>
+      </c>
+      <c r="B32" t="s" s="188">
+        <v>1</v>
+      </c>
+      <c r="C32" t="s" s="189">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s" s="190">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s" s="191">
+        <v>18</v>
+      </c>
+      <c r="F32" t="s" s="192">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="193">
+        <v>1</v>
+      </c>
+      <c r="B33" t="s" s="194">
+        <v>1</v>
+      </c>
+      <c r="C33" t="s" s="195">
+        <v>49</v>
+      </c>
+      <c r="D33" t="s" s="196">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s" s="197">
+        <v>18</v>
+      </c>
+      <c r="F33" t="s" s="198">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s" s="199">
+        <v>51</v>
+      </c>
+      <c r="B34" t="s" s="200">
+        <v>48</v>
+      </c>
+      <c r="C34" t="s" s="201">
+        <v>12</v>
+      </c>
+      <c r="D34" t="s" s="202">
+        <v>48</v>
+      </c>
+      <c r="E34" t="s" s="203">
+        <v>18</v>
+      </c>
+      <c r="F34" t="s" s="204">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="s" s="205">
+        <v>52</v>
+      </c>
+      <c r="B35" t="s" s="206">
+        <v>53</v>
+      </c>
+      <c r="C35" t="s" s="207">
+        <v>12</v>
+      </c>
+      <c r="D35" t="s" s="208">
+        <v>53</v>
+      </c>
+      <c r="E35" t="s" s="209">
+        <v>18</v>
+      </c>
+      <c r="F35" t="s" s="210">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="211">
+        <v>54</v>
+      </c>
+      <c r="B36" t="s" s="212">
+        <v>53</v>
+      </c>
+      <c r="C36" t="s" s="213">
+        <v>12</v>
+      </c>
+      <c r="D36" t="s" s="214">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s" s="215">
+        <v>18</v>
+      </c>
+      <c r="F36" t="s" s="216">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="217">
+        <v>55</v>
+      </c>
+      <c r="B37" t="s" s="218">
+        <v>56</v>
+      </c>
+      <c r="C37" t="s" s="219">
+        <v>12</v>
+      </c>
+      <c r="D37" t="s" s="220">
+        <v>53</v>
+      </c>
+      <c r="E37" t="s" s="221">
+        <v>18</v>
+      </c>
+      <c r="F37" t="s" s="222">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="s" s="223">
+        <v>1</v>
+      </c>
+      <c r="B38" t="s" s="224">
+        <v>1</v>
+      </c>
+      <c r="C38" t="s" s="225">
+        <v>16</v>
+      </c>
+      <c r="D38" t="s" s="226">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s" s="227">
+        <v>18</v>
+      </c>
+      <c r="F38" t="s" s="228">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="s" s="229">
+        <v>57</v>
+      </c>
+      <c r="B39" t="s" s="230">
+        <v>58</v>
+      </c>
+      <c r="C39" t="s" s="231">
+        <v>12</v>
+      </c>
+      <c r="D39" t="s" s="232">
+        <v>56</v>
+      </c>
+      <c r="E39" t="s" s="233">
+        <v>59</v>
+      </c>
+      <c r="F39" t="s" s="234">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="s" s="235">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s" s="236">
+        <v>1</v>
+      </c>
+      <c r="C40" t="s" s="237">
+        <v>49</v>
+      </c>
+      <c r="D40" t="s" s="238">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s" s="239">
+        <v>18</v>
+      </c>
+      <c r="F40" t="s" s="240">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="s" s="241">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s" s="242">
+        <v>58</v>
+      </c>
+      <c r="C41" t="s" s="243">
+        <v>49</v>
+      </c>
+      <c r="D41" t="s" s="244">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s" s="245">
+        <v>61</v>
+      </c>
+      <c r="F41" t="s" s="246">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="s" s="247">
+        <v>1</v>
+      </c>
+      <c r="B42" t="s" s="248">
+        <v>1</v>
+      </c>
+      <c r="C42" t="s" s="249">
+        <v>49</v>
+      </c>
+      <c r="D42" t="s" s="250">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s" s="251">
+        <v>18</v>
+      </c>
+      <c r="F42" t="s" s="252">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="s" s="253">
+        <v>1</v>
+      </c>
+      <c r="B43" t="s" s="254">
+        <v>1</v>
+      </c>
+      <c r="C43" t="s" s="255">
+        <v>12</v>
+      </c>
+      <c r="D43" t="s" s="256">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s" s="257">
+        <v>63</v>
+      </c>
+      <c r="F43" t="s" s="258">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="s" s="259">
+        <v>1</v>
+      </c>
+      <c r="B44" t="s" s="260">
+        <v>1</v>
+      </c>
+      <c r="C44" t="s" s="261">
+        <v>12</v>
+      </c>
+      <c r="D44" t="s" s="262">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s" s="263">
+        <v>18</v>
+      </c>
+      <c r="F44" t="s" s="264">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="s" s="265">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s" s="266">
+        <v>1</v>
+      </c>
+      <c r="C45" t="s" s="267">
+        <v>16</v>
+      </c>
+      <c r="D45" t="s" s="268">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s" s="269">
+        <v>65</v>
+      </c>
+      <c r="F45" t="s" s="270">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="s" s="271">
+        <v>1</v>
+      </c>
+      <c r="B46" t="s" s="272">
+        <v>1</v>
+      </c>
+      <c r="C46" t="s" s="273">
+        <v>16</v>
+      </c>
+      <c r="D46" t="s" s="274">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s" s="275">
+        <v>18</v>
+      </c>
+      <c r="F46" t="s" s="276">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="s" s="277">
+        <v>67</v>
+      </c>
+      <c r="B47" t="s" s="278">
+        <v>58</v>
+      </c>
+      <c r="C47" t="s" s="279">
+        <v>12</v>
+      </c>
+      <c r="D47" t="s" s="280">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s" s="281">
+        <v>18</v>
+      </c>
+      <c r="F47" t="s" s="282">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="s" s="283">
+        <v>1</v>
+      </c>
+      <c r="B48" t="s" s="284">
+        <v>1</v>
+      </c>
+      <c r="C48" t="s" s="285">
+        <v>12</v>
+      </c>
+      <c r="D48" t="s" s="286">
+        <v>48</v>
+      </c>
+      <c r="E48" t="s" s="287">
+        <v>68</v>
+      </c>
+      <c r="F48" t="s" s="288">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="s" s="289">
+        <v>1</v>
+      </c>
+      <c r="B49" t="s" s="290">
+        <v>1</v>
+      </c>
+      <c r="C49" t="s" s="291">
+        <v>12</v>
+      </c>
+      <c r="D49" t="s" s="292">
+        <v>35</v>
+      </c>
+      <c r="E49" t="s" s="293">
+        <v>18</v>
+      </c>
+      <c r="F49" t="s" s="294">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="s" s="295">
+        <v>69</v>
+      </c>
+      <c r="B50" t="s" s="296">
+        <v>70</v>
+      </c>
+      <c r="C50" t="s" s="297">
+        <v>16</v>
+      </c>
+      <c r="D50" t="s" s="298">
+        <v>56</v>
+      </c>
+      <c r="E50" t="s" s="299">
+        <v>71</v>
+      </c>
+      <c r="F50" t="s" s="300">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="s" s="301">
+        <v>1</v>
+      </c>
+      <c r="B51" t="s" s="302">
+        <v>1</v>
+      </c>
+      <c r="C51" t="s" s="303">
+        <v>12</v>
+      </c>
+      <c r="D51" t="s" s="304">
+        <v>35</v>
+      </c>
+      <c r="E51" t="s" s="305">
+        <v>18</v>
+      </c>
+      <c r="F51" t="s" s="306">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="s" s="307">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s" s="308">
+        <v>74</v>
+      </c>
+      <c r="C52" t="s" s="309">
+        <v>16</v>
+      </c>
+      <c r="D52" t="s" s="310">
+        <v>74</v>
+      </c>
+      <c r="E52" t="s" s="311">
+        <v>18</v>
+      </c>
+      <c r="F52" t="s" s="312">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="s" s="313">
+        <v>75</v>
+      </c>
+      <c r="B53" t="s" s="314">
+        <v>76</v>
+      </c>
+      <c r="E53" t="s" s="315">
+        <v>77</v>
+      </c>
+      <c r="F53" t="s" s="316">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="317"/>
+      <c r="B54" t="s" s="318">
+        <v>79</v>
+      </c>
+      <c r="E54" t="s" s="319">
+        <v>80</v>
+      </c>
+      <c r="F54" t="s" s="320">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="321"/>
+      <c r="B55" t="s" s="322">
+        <v>82</v>
+      </c>
+      <c r="C55" s="323"/>
+      <c r="D55" s="324"/>
+      <c r="E55" t="s" s="325">
+        <v>83</v>
+      </c>
+      <c r="F55" t="s" s="326">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="s" s="327">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:D54"/>
+    <mergeCell ref="B55:D55"/>
+    <mergeCell ref="A57:F57"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1138,158 +3812,707 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="15.9375" customWidth="true"/>
+    <col min="1" max="1" width="20.625" customWidth="true"/>
     <col min="2" max="2" width="7.5" customWidth="true"/>
     <col min="3" max="3" width="9.375" customWidth="true"/>
     <col min="4" max="4" width="3.75" customWidth="true"/>
-    <col min="5" max="5" width="24.6875" customWidth="true"/>
-    <col min="6" max="6" width="24.6875" customWidth="true"/>
+    <col min="5" max="5" width="22.34375" customWidth="true"/>
+    <col min="6" max="6" width="22.34375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="49">
+      <c r="A1" t="s" s="328">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="50">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="51">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="52">
-        <v>22</v>
-      </c>
-      <c r="E1" t="s" s="53">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="54">
-        <v>23</v>
+      <c r="B1" t="s" s="329">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="330">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="331">
+        <v>86</v>
+      </c>
+      <c r="E1" t="s" s="332">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="333">
+        <v>87</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="55">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="56">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="57">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="58">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="59">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="60">
+      <c r="A2" t="s" s="334">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="335">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="336">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="337">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="338">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="339">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="61">
+      <c r="A3" t="s" s="340">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="62">
+      <c r="B3" t="s" s="341">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="63">
+      <c r="C3" t="s" s="342">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="64">
+      <c r="D3" t="s" s="343">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="65">
+      <c r="E3" t="s" s="344">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="66">
+      <c r="F3" t="s" s="345">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="67">
-        <v>24</v>
-      </c>
-      <c r="B4" t="s" s="68">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s" s="69">
-        <v>15</v>
-      </c>
-      <c r="D4" t="s" s="70">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s" s="71">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s" s="72">
-        <v>14</v>
+      <c r="A4" t="s" s="346">
+        <v>88</v>
+      </c>
+      <c r="B4" t="s" s="347">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="348">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="349">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="350">
+        <v>62</v>
+      </c>
+      <c r="F4" t="s" s="351">
+        <v>18</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="s" s="73">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s" s="74">
-        <v>1</v>
-      </c>
-      <c r="C5" t="s" s="75">
-        <v>26</v>
-      </c>
-      <c r="D5" t="s" s="76">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s" s="77">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s" s="78">
-        <v>14</v>
+      <c r="A5" t="s" s="352">
+        <v>89</v>
+      </c>
+      <c r="B5" t="s" s="353">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="354">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="355">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s" s="356">
+        <v>90</v>
+      </c>
+      <c r="F5" t="s" s="357">
+        <v>18</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="s" s="79">
-        <v>27</v>
-      </c>
-      <c r="B6" t="s" s="80">
+      <c r="A6" t="s" s="358">
+        <v>91</v>
+      </c>
+      <c r="B6" t="s" s="359">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="360">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="361">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s" s="362">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s" s="363">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="364">
+        <v>92</v>
+      </c>
+      <c r="B7" t="s" s="365">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s" s="366">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s" s="367">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s" s="368">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s" s="369">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="370">
+        <v>93</v>
+      </c>
+      <c r="B8" t="s" s="371">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s" s="372">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s" s="373">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s" s="374">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s" s="375">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="376">
+        <v>94</v>
+      </c>
+      <c r="B9" t="s" s="377">
+        <v>11</v>
+      </c>
+      <c r="C9" t="s" s="378">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s" s="379">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s" s="380">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s" s="381">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="382">
+        <v>95</v>
+      </c>
+      <c r="B10" t="s" s="383">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s" s="384">
         <v>16</v>
       </c>
-      <c r="C6" t="s" s="81">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s" s="82">
+      <c r="D10" t="s" s="385">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s" s="386">
+        <v>96</v>
+      </c>
+      <c r="F10" t="s" s="387">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="388">
+        <v>97</v>
+      </c>
+      <c r="B11" t="s" s="389">
+        <v>35</v>
+      </c>
+      <c r="C11" t="s" s="390">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s" s="391">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s" s="392">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s" s="393">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="394">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s" s="395">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s" s="396">
+        <v>49</v>
+      </c>
+      <c r="D12" t="s" s="397">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s" s="398">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s" s="399">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="400">
+        <v>98</v>
+      </c>
+      <c r="B13" t="s" s="401">
+        <v>35</v>
+      </c>
+      <c r="C13" t="s" s="402">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s" s="403">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s" s="404">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s" s="405">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="406">
+        <v>1</v>
+      </c>
+      <c r="B14" t="s" s="407">
+        <v>1</v>
+      </c>
+      <c r="C14" t="s" s="408">
         <v>16</v>
       </c>
-      <c r="E6" t="s" s="83">
-        <v>28</v>
-      </c>
-      <c r="F6" t="s" s="84">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="85">
-        <v>29</v>
-      </c>
-      <c r="B7" t="s" s="86">
+      <c r="D14" t="s" s="409">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s" s="410">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s" s="411">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="412">
+        <v>98</v>
+      </c>
+      <c r="B15" t="s" s="413">
+        <v>35</v>
+      </c>
+      <c r="C15" t="s" s="414">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s" s="415">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s" s="416">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s" s="417">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="418">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s" s="419">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s" s="420">
         <v>16</v>
       </c>
-      <c r="C7" t="s" s="87">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s" s="88">
+      <c r="D16" t="s" s="421">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s" s="422">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s" s="423">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="424">
+        <v>99</v>
+      </c>
+      <c r="B17" t="s" s="425">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s" s="426">
         <v>16</v>
       </c>
-      <c r="E7" t="s" s="89">
-        <v>30</v>
-      </c>
-      <c r="F7" t="s" s="90">
-        <v>14</v>
+      <c r="D17" t="s" s="427">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s" s="428">
+        <v>100</v>
+      </c>
+      <c r="F17" t="s" s="429">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="430">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s" s="431">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s" s="432">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s" s="433">
+        <v>35</v>
+      </c>
+      <c r="E18" t="s" s="434">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s" s="435">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="436">
+        <v>102</v>
+      </c>
+      <c r="B19" t="s" s="437">
+        <v>48</v>
+      </c>
+      <c r="C19" t="s" s="438">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s" s="439">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s" s="440">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s" s="441">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="442">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s" s="443">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s" s="444">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s" s="445">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s" s="446">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s" s="447">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="448">
+        <v>1</v>
+      </c>
+      <c r="B21" t="s" s="449">
+        <v>1</v>
+      </c>
+      <c r="C21" t="s" s="450">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s" s="451">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s" s="452">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s" s="453">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="454">
+        <v>103</v>
+      </c>
+      <c r="B22" t="s" s="455">
+        <v>48</v>
+      </c>
+      <c r="C22" t="s" s="456">
+        <v>12</v>
+      </c>
+      <c r="D22" t="s" s="457">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s" s="458">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s" s="459">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="460">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s" s="461">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s" s="462">
+        <v>16</v>
+      </c>
+      <c r="D23" t="s" s="463">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s" s="464">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s" s="465">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="466">
+        <v>1</v>
+      </c>
+      <c r="B24" t="s" s="467">
+        <v>1</v>
+      </c>
+      <c r="C24" t="s" s="468">
+        <v>49</v>
+      </c>
+      <c r="D24" t="s" s="469">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s" s="470">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s" s="471">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="472">
+        <v>104</v>
+      </c>
+      <c r="B25" t="s" s="473">
+        <v>48</v>
+      </c>
+      <c r="C25" t="s" s="474">
+        <v>16</v>
+      </c>
+      <c r="D25" t="s" s="475">
+        <v>35</v>
+      </c>
+      <c r="E25" t="s" s="476">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s" s="477">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="478">
+        <v>1</v>
+      </c>
+      <c r="B26" t="s" s="479">
+        <v>1</v>
+      </c>
+      <c r="C26" t="s" s="480">
+        <v>49</v>
+      </c>
+      <c r="D26" t="s" s="481">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s" s="482">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s" s="483">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="484">
+        <v>106</v>
+      </c>
+      <c r="B27" t="s" s="485">
+        <v>48</v>
+      </c>
+      <c r="C27" t="s" s="486">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s" s="487">
+        <v>48</v>
+      </c>
+      <c r="E27" t="s" s="488">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s" s="489">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="490">
+        <v>107</v>
+      </c>
+      <c r="B28" t="s" s="491">
+        <v>70</v>
+      </c>
+      <c r="C28" t="s" s="492">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s" s="493">
+        <v>35</v>
+      </c>
+      <c r="E28" t="s" s="494">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s" s="495">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="496">
+        <v>1</v>
+      </c>
+      <c r="B29" t="s" s="497">
+        <v>1</v>
+      </c>
+      <c r="C29" t="s" s="498">
+        <v>49</v>
+      </c>
+      <c r="D29" t="s" s="499">
+        <v>56</v>
+      </c>
+      <c r="E29" t="s" s="500">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s" s="501">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="502">
+        <v>108</v>
+      </c>
+      <c r="B30" t="s" s="503">
+        <v>109</v>
+      </c>
+      <c r="C30" t="s" s="504">
+        <v>12</v>
+      </c>
+      <c r="D30" t="s" s="505">
+        <v>70</v>
+      </c>
+      <c r="E30" t="s" s="506">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s" s="507">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="508">
+        <v>1</v>
+      </c>
+      <c r="B31" t="s" s="509">
+        <v>1</v>
+      </c>
+      <c r="C31" t="s" s="510">
+        <v>49</v>
+      </c>
+      <c r="D31" t="s" s="511">
+        <v>48</v>
+      </c>
+      <c r="E31" t="s" s="512">
+        <v>18</v>
+      </c>
+      <c r="F31" t="s" s="513">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="514">
+        <v>10</v>
+      </c>
+      <c r="B32" t="s" s="515">
+        <v>110</v>
+      </c>
+      <c r="C32" t="s" s="516">
+        <v>16</v>
+      </c>
+      <c r="D32" t="s" s="517">
+        <v>110</v>
+      </c>
+      <c r="E32" t="s" s="518">
+        <v>32</v>
+      </c>
+      <c r="F32" t="s" s="519">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s" s="520">
+        <v>112</v>
+      </c>
+      <c r="B33" t="s" s="521">
+        <v>113</v>
+      </c>
+      <c r="E33" t="s" s="522">
+        <v>114</v>
+      </c>
+      <c r="F33" t="s" s="523">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="524"/>
+      <c r="B34" t="s" s="525">
+        <v>116</v>
+      </c>
+      <c r="E34" t="s" s="526">
+        <v>117</v>
+      </c>
+      <c r="F34" t="s" s="527">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="528"/>
+      <c r="B35" t="s" s="529">
+        <v>118</v>
+      </c>
+      <c r="C35" s="530"/>
+      <c r="D35" s="531"/>
+      <c r="E35" t="s" s="532">
+        <v>119</v>
+      </c>
+      <c r="F35" t="s" s="533">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="s" s="534">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="B34:D34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="A37:F37"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -1303,98 +4526,487 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="12.1875" customWidth="true"/>
+    <col min="1" max="1" width="16.875" customWidth="true"/>
     <col min="2" max="2" width="7.5" customWidth="true"/>
     <col min="3" max="3" width="9.375" customWidth="true"/>
     <col min="4" max="4" width="3.75" customWidth="true"/>
-    <col min="5" max="5" width="26.5625" customWidth="true"/>
-    <col min="6" max="6" width="26.5625" customWidth="true"/>
+    <col min="5" max="5" width="24.21875" customWidth="true"/>
+    <col min="6" max="6" width="24.21875" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="91">
+      <c r="A1" t="s" s="535">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="92">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="93">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="94">
-        <v>31</v>
-      </c>
-      <c r="E1" t="s" s="95">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="96">
+      <c r="B1" t="s" s="536">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="537">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="538">
+        <v>120</v>
+      </c>
+      <c r="E1" t="s" s="539">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="540">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="541">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="542">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="543">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="544">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="545">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="546">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="547">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s" s="548">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s" s="549">
+        <v>6</v>
+      </c>
+      <c r="D3" t="s" s="550">
+        <v>7</v>
+      </c>
+      <c r="E3" t="s" s="551">
+        <v>8</v>
+      </c>
+      <c r="F3" t="s" s="552">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="553">
+        <v>122</v>
+      </c>
+      <c r="B4" t="s" s="554">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="555">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s" s="556">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="557">
+        <v>123</v>
+      </c>
+      <c r="F4" t="s" s="558">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="559">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s" s="560">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="561">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="562">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s" s="563">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="564">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="565">
+        <v>125</v>
+      </c>
+      <c r="B6" t="s" s="566">
+        <v>35</v>
+      </c>
+      <c r="C6" t="s" s="567">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="568">
+        <v>35</v>
+      </c>
+      <c r="E6" t="s" s="569">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s" s="570">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="571">
+        <v>126</v>
+      </c>
+      <c r="B7" t="s" s="572">
+        <v>35</v>
+      </c>
+      <c r="C7" t="s" s="573">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s" s="574">
+        <v>35</v>
+      </c>
+      <c r="E7" t="s" s="575">
+        <v>127</v>
+      </c>
+      <c r="F7" t="s" s="576">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="577">
+        <v>128</v>
+      </c>
+      <c r="B8" t="s" s="578">
+        <v>35</v>
+      </c>
+      <c r="C8" t="s" s="579">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s" s="580">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s" s="581">
+        <v>129</v>
+      </c>
+      <c r="F8" t="s" s="582">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="583">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s" s="584">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s" s="585">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s" s="586">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s" s="587">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s" s="588">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="589">
+        <v>132</v>
+      </c>
+      <c r="B10" t="s" s="590">
+        <v>35</v>
+      </c>
+      <c r="C10" t="s" s="591">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s" s="592">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s" s="593">
+        <v>133</v>
+      </c>
+      <c r="F10" t="s" s="594">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="595">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s" s="596">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s" s="597">
+        <v>12</v>
+      </c>
+      <c r="D11" t="s" s="598">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s" s="599">
+        <v>135</v>
+      </c>
+      <c r="F11" t="s" s="600">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="601">
+        <v>1</v>
+      </c>
+      <c r="B12" t="s" s="602">
+        <v>1</v>
+      </c>
+      <c r="C12" t="s" s="603">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s" s="604">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s" s="605">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s" s="606">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="607">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s" s="608">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s" s="609">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s" s="610">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s" s="611">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s" s="612">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="613">
+        <v>136</v>
+      </c>
+      <c r="B14" t="s" s="614">
+        <v>48</v>
+      </c>
+      <c r="C14" t="s" s="615">
+        <v>16</v>
+      </c>
+      <c r="D14" t="s" s="616">
+        <v>48</v>
+      </c>
+      <c r="E14" t="s" s="617">
+        <v>137</v>
+      </c>
+      <c r="F14" t="s" s="618">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="619">
+        <v>138</v>
+      </c>
+      <c r="B15" t="s" s="620">
+        <v>48</v>
+      </c>
+      <c r="C15" t="s" s="621">
+        <v>12</v>
+      </c>
+      <c r="D15" t="s" s="622">
+        <v>35</v>
+      </c>
+      <c r="E15" t="s" s="623">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s" s="624">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="625">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s" s="626">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s" s="627">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s" s="628">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s" s="629">
+        <v>139</v>
+      </c>
+      <c r="F16" t="s" s="630">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="631">
+        <v>10</v>
+      </c>
+      <c r="B17" t="s" s="632">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s" s="633">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s" s="634">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s" s="635">
         <v>32</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="s" s="97">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="98">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="99">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="100">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="101">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="102">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="s" s="103">
-        <v>4</v>
-      </c>
-      <c r="B3" t="s" s="104">
-        <v>5</v>
-      </c>
-      <c r="C3" t="s" s="105">
-        <v>6</v>
-      </c>
-      <c r="D3" t="s" s="106">
-        <v>7</v>
-      </c>
-      <c r="E3" t="s" s="107">
-        <v>8</v>
-      </c>
-      <c r="F3" t="s" s="108">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="s" s="109">
-        <v>33</v>
-      </c>
-      <c r="B4" t="s" s="110">
-        <v>21</v>
-      </c>
-      <c r="C4" t="s" s="111">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s" s="112">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s" s="113">
-        <v>34</v>
-      </c>
-      <c r="F4" t="s" s="114">
-        <v>14</v>
+      <c r="F17" t="s" s="636">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="637">
+        <v>1</v>
+      </c>
+      <c r="B18" t="s" s="638">
+        <v>1</v>
+      </c>
+      <c r="C18" t="s" s="639">
+        <v>49</v>
+      </c>
+      <c r="D18" t="s" s="640">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s" s="641">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s" s="642">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="643">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s" s="644">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s" s="645">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s" s="646">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s" s="647">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s" s="648">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="649">
+        <v>141</v>
+      </c>
+      <c r="B20" t="s" s="650">
+        <v>56</v>
+      </c>
+      <c r="C20" t="s" s="651">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s" s="652">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s" s="653">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s" s="654">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="655">
+        <v>142</v>
+      </c>
+      <c r="B21" t="s" s="656">
+        <v>143</v>
+      </c>
+      <c r="C21" t="s" s="657">
+        <v>49</v>
+      </c>
+      <c r="D21" t="s" s="658">
+        <v>143</v>
+      </c>
+      <c r="E21" t="s" s="659">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s" s="660">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="661">
+        <v>145</v>
+      </c>
+      <c r="B22" t="s" s="662">
+        <v>146</v>
+      </c>
+      <c r="E22" t="s" s="663">
+        <v>147</v>
+      </c>
+      <c r="F22" t="s" s="664">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="665"/>
+      <c r="B23" t="s" s="666">
+        <v>149</v>
+      </c>
+      <c r="E23" t="s" s="667">
+        <v>117</v>
+      </c>
+      <c r="F23" t="s" s="668">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="669"/>
+      <c r="B24" t="s" s="670">
+        <v>118</v>
+      </c>
+      <c r="C24" s="671"/>
+      <c r="D24" s="672"/>
+      <c r="E24" t="s" s="673">
+        <v>119</v>
+      </c>
+      <c r="F24" t="s" s="674">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="675">
+        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:D23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="A26:F26"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/Application/PackerReports (03 Oct 2016).xlsx
+++ b/Application/PackerReports (03 Oct 2016).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="669" uniqueCount="155">
   <si>
     <t>Doorstep Chef Packer Sheet</t>
   </si>
@@ -118,6 +118,15 @@
     <t>dbjfcad</t>
   </si>
   <si>
+    <t>Stefan Salvatore</t>
+  </si>
+  <si>
+    <t>Cashews</t>
+  </si>
+  <si>
+    <t>Damon Salvatore</t>
+  </si>
+  <si>
     <t>Dane Left</t>
   </si>
   <si>
@@ -157,6 +166,15 @@
     <t>James Potter</t>
   </si>
   <si>
+    <t>Edward  Cullen</t>
+  </si>
+  <si>
+    <t>Human blood</t>
+  </si>
+  <si>
+    <t>Rabbit blood</t>
+  </si>
+  <si>
     <t>Michael Jackson</t>
   </si>
   <si>
@@ -217,12 +235,6 @@
     <t>no grapes</t>
   </si>
   <si>
-    <t>Afro Jack</t>
-  </si>
-  <si>
-    <t>Jalapenoes</t>
-  </si>
-  <si>
     <t>George Washington</t>
   </si>
   <si>
@@ -235,238 +247,238 @@
     <t>Peanuts</t>
   </si>
   <si>
+    <t>Alice Cullen</t>
+  </si>
+  <si>
     <t>Robin Hood</t>
   </si>
   <si>
     <t>15</t>
   </si>
   <si>
-    <t>Clients: 33</t>
-  </si>
-  <si>
-    <t>Standard: 48</t>
-  </si>
-  <si>
-    <t>Low Carb:  36</t>
+    <t>Clients: 36</t>
+  </si>
+  <si>
+    <t>Standard: 52</t>
+  </si>
+  <si>
+    <t>Low Carb:  37</t>
   </si>
   <si>
     <t>Kiddies: 5</t>
   </si>
   <si>
-    <t>Single: 36</t>
+    <t>Single: 39</t>
+  </si>
+  <si>
+    <t>Couple:  4</t>
+  </si>
+  <si>
+    <t>Small(3): 1</t>
+  </si>
+  <si>
+    <t>Medium(4): 3</t>
+  </si>
+  <si>
+    <t>Large(5):  2</t>
+  </si>
+  <si>
+    <t>XLarge(6): 0</t>
+  </si>
+  <si>
+    <t>Fri Oct 2016 10:14:20</t>
+  </si>
+  <si>
+    <t>Michael - 012 345 6789</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Week: 9 Route: 1</t>
+  </si>
+  <si>
+    <t>Rossouw Binedell</t>
+  </si>
+  <si>
+    <t>Just one cause I'm a loner</t>
+  </si>
+  <si>
+    <t>Alan Walker</t>
+  </si>
+  <si>
+    <t>Christiaan Barnard</t>
+  </si>
+  <si>
+    <t>Chloe Sullivan</t>
+  </si>
+  <si>
+    <t>Hermione Granger</t>
+  </si>
+  <si>
+    <t>Florence NightingGale</t>
+  </si>
+  <si>
+    <t>No Salt</t>
+  </si>
+  <si>
+    <t>White Shadow</t>
+  </si>
+  <si>
+    <t>Leonardo DiCaprio</t>
+  </si>
+  <si>
+    <t>James Earl Jones</t>
+  </si>
+  <si>
+    <t>No nuts</t>
+  </si>
+  <si>
+    <t>No green foods.</t>
+  </si>
+  <si>
+    <t>Lone Ranger</t>
+  </si>
+  <si>
+    <t>Harry Potter</t>
+  </si>
+  <si>
+    <t>Adam Lavine</t>
+  </si>
+  <si>
+    <t>Leave the tomatoes</t>
+  </si>
+  <si>
+    <t>Amanda Bynes</t>
+  </si>
+  <si>
+    <t>Harison Ford</t>
+  </si>
+  <si>
+    <t>Kendral Jennar</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>No cheese</t>
+  </si>
+  <si>
+    <t>Clients: 17</t>
+  </si>
+  <si>
+    <t>Standard: 19</t>
+  </si>
+  <si>
+    <t>Low Carb:  44</t>
+  </si>
+  <si>
+    <t>Kiddies: 8</t>
+  </si>
+  <si>
+    <t>Single: 19</t>
+  </si>
+  <si>
+    <t>Small(3): 2</t>
+  </si>
+  <si>
+    <t>Medium(4): 0</t>
+  </si>
+  <si>
+    <t>Large(5):  1</t>
+  </si>
+  <si>
+    <t>Keanu - 987 654 3210</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Week: 9 Route: 2</t>
+  </si>
+  <si>
+    <t>Bugs Bunny</t>
+  </si>
+  <si>
+    <t>no rabbit</t>
+  </si>
+  <si>
+    <t>Charlie Sheen</t>
+  </si>
+  <si>
+    <t>King Kong</t>
+  </si>
+  <si>
+    <t>Astrix Oblix</t>
+  </si>
+  <si>
+    <t>Just boar</t>
+  </si>
+  <si>
+    <t>Billy Joel</t>
+  </si>
+  <si>
+    <t>Oysters</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>Raisens</t>
+  </si>
+  <si>
+    <t>Sydney White</t>
+  </si>
+  <si>
+    <t>Grapes</t>
+  </si>
+  <si>
+    <t>Rita Ora</t>
+  </si>
+  <si>
+    <t>No Cocaine</t>
+  </si>
+  <si>
+    <t>Ellen TheGenarous</t>
+  </si>
+  <si>
+    <t>Absolutely no nuts</t>
+  </si>
+  <si>
+    <t>No Green Things</t>
+  </si>
+  <si>
+    <t>Albert Van Dame</t>
+  </si>
+  <si>
+    <t>Michael Bay</t>
+  </si>
+  <si>
+    <t>Bill Cosby</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Extra sweet</t>
+  </si>
+  <si>
+    <t>Clients: 12</t>
+  </si>
+  <si>
+    <t>Standard: 17</t>
+  </si>
+  <si>
+    <t>Low Carb:  11</t>
+  </si>
+  <si>
+    <t>Kiddies: 25</t>
+  </si>
+  <si>
+    <t>Single: 9</t>
   </si>
   <si>
     <t>Couple:  5</t>
   </si>
   <si>
-    <t>Small(3): 2</t>
-  </si>
-  <si>
-    <t>Medium(4): 3</t>
-  </si>
-  <si>
-    <t>Large(5):  2</t>
-  </si>
-  <si>
-    <t>XLarge(6): 0</t>
-  </si>
-  <si>
-    <t>Thu Oct 2016 17:48:42</t>
-  </si>
-  <si>
-    <t>Michael - 012 345 6789</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Week: 9 Route: 1</t>
-  </si>
-  <si>
-    <t>Donald Trump</t>
-  </si>
-  <si>
-    <t>Rossouw Binedell</t>
-  </si>
-  <si>
-    <t>Just one cause I'm a loner</t>
-  </si>
-  <si>
-    <t>Alan Walker</t>
-  </si>
-  <si>
-    <t>Christiaan Barnard</t>
-  </si>
-  <si>
-    <t>Chloe Sullivan</t>
-  </si>
-  <si>
-    <t>Hermione Granger</t>
-  </si>
-  <si>
-    <t>Florence NightingGale</t>
-  </si>
-  <si>
-    <t>No Salt</t>
-  </si>
-  <si>
-    <t>White Shadow</t>
-  </si>
-  <si>
-    <t>Leonardo DiCaprio</t>
-  </si>
-  <si>
-    <t>James Earl Jones</t>
-  </si>
-  <si>
-    <t>No nuts</t>
-  </si>
-  <si>
-    <t>No green foods.</t>
-  </si>
-  <si>
-    <t>Lone Ranger</t>
-  </si>
-  <si>
-    <t>Harry Potter</t>
-  </si>
-  <si>
-    <t>Adam Lavine</t>
-  </si>
-  <si>
-    <t>Leave the tomatoes</t>
-  </si>
-  <si>
-    <t>Amanda Bynes</t>
-  </si>
-  <si>
-    <t>Harison Ford</t>
-  </si>
-  <si>
-    <t>Kendral Jennar</t>
-  </si>
-  <si>
-    <t>10</t>
-  </si>
-  <si>
-    <t>26</t>
-  </si>
-  <si>
-    <t>No cheese</t>
-  </si>
-  <si>
-    <t>Clients: 18</t>
-  </si>
-  <si>
-    <t>Standard: 20</t>
-  </si>
-  <si>
-    <t>Low Carb:  39</t>
-  </si>
-  <si>
-    <t>Kiddies: 13</t>
-  </si>
-  <si>
-    <t>Single: 20</t>
-  </si>
-  <si>
-    <t>Couple:  4</t>
-  </si>
-  <si>
-    <t>Medium(4): 0</t>
-  </si>
-  <si>
-    <t>Large(5):  1</t>
-  </si>
-  <si>
-    <t>Keanu - 987 654 3210</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Week: 9 Route: 2</t>
-  </si>
-  <si>
-    <t>Bugs Bunny</t>
-  </si>
-  <si>
-    <t>no rabbit</t>
-  </si>
-  <si>
-    <t>Charlie Sheen</t>
-  </si>
-  <si>
-    <t>King Kong</t>
-  </si>
-  <si>
-    <t>Astrix Oblix</t>
-  </si>
-  <si>
-    <t>Just boar</t>
-  </si>
-  <si>
-    <t>Billy Joel</t>
-  </si>
-  <si>
-    <t>Oysters</t>
-  </si>
-  <si>
-    <t>Tomato</t>
-  </si>
-  <si>
-    <t>Raisens</t>
-  </si>
-  <si>
-    <t>Sydney White</t>
-  </si>
-  <si>
-    <t>Grapes</t>
-  </si>
-  <si>
-    <t>Indianah Jones</t>
-  </si>
-  <si>
-    <t>no snakes</t>
-  </si>
-  <si>
-    <t>Rita Ora</t>
-  </si>
-  <si>
-    <t>No Cocaine</t>
-  </si>
-  <si>
-    <t>Ellen TheGenarous</t>
-  </si>
-  <si>
-    <t>Absolutely no nuts</t>
-  </si>
-  <si>
-    <t>No Green Things</t>
-  </si>
-  <si>
-    <t>Albert Van Dame</t>
-  </si>
-  <si>
-    <t>Bill Cosby</t>
-  </si>
-  <si>
-    <t>22</t>
-  </si>
-  <si>
-    <t>Extra sweet</t>
-  </si>
-  <si>
-    <t>Clients: 12</t>
-  </si>
-  <si>
-    <t>Standard: 18</t>
-  </si>
-  <si>
-    <t>Low Carb:  7</t>
-  </si>
-  <si>
-    <t>Kiddies: 24</t>
-  </si>
-  <si>
-    <t>Single: 11</t>
-  </si>
-  <si>
-    <t>Small(3): 1</t>
+    <t>Medium(4): 1</t>
   </si>
 </sst>
 </file>
@@ -1163,7 +1175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="676">
+  <cellXfs count="682">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="true"/>
@@ -1206,6 +1218,34 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
+      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
@@ -1951,20 +1991,6 @@
     </xf>
     <xf numFmtId="0" fontId="37" fillId="3" borderId="8" xfId="0" applyBorder="true" applyFill="true" applyFont="true">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true">
-      <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="true"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="true">
@@ -3071,16 +3097,16 @@
         <v>34</v>
       </c>
       <c r="B19" t="s" s="110">
+        <v>11</v>
+      </c>
+      <c r="C19" t="s" s="111">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s" s="112">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s" s="113">
         <v>35</v>
-      </c>
-      <c r="C19" t="s" s="111">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s" s="112">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s" s="113">
-        <v>36</v>
       </c>
       <c r="F19" t="s" s="114">
         <v>18</v>
@@ -3088,10 +3114,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s" s="115">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="B20" t="s" s="116">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s" s="117">
         <v>12</v>
@@ -3100,7 +3126,7 @@
         <v>11</v>
       </c>
       <c r="E20" t="s" s="119">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="F20" t="s" s="120">
         <v>18</v>
@@ -3108,39 +3134,39 @@
     </row>
     <row r="21">
       <c r="A21" t="s" s="121">
+        <v>37</v>
+      </c>
+      <c r="B21" t="s" s="122">
         <v>38</v>
       </c>
-      <c r="B21" t="s" s="122">
-        <v>35</v>
-      </c>
       <c r="C21" t="s" s="123">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D21" t="s" s="124">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E21" t="s" s="125">
         <v>39</v>
       </c>
       <c r="F21" t="s" s="126">
-        <v>40</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s" s="127">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="B22" t="s" s="128">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C22" t="s" s="129">
         <v>12</v>
       </c>
       <c r="D22" t="s" s="130">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E22" t="s" s="131">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s" s="132">
         <v>18</v>
@@ -3148,39 +3174,39 @@
     </row>
     <row r="23">
       <c r="A23" t="s" s="133">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B23" t="s" s="134">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C23" t="s" s="135">
         <v>12</v>
       </c>
       <c r="D23" t="s" s="136">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E23" t="s" s="137">
-        <v>18</v>
+        <v>42</v>
       </c>
       <c r="F23" t="s" s="138">
-        <v>18</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s" s="139">
-        <v>1</v>
+        <v>44</v>
       </c>
       <c r="B24" t="s" s="140">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C24" t="s" s="141">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D24" t="s" s="142">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E24" t="s" s="143">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s" s="144">
         <v>18</v>
@@ -3188,10 +3214,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s" s="145">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B25" t="s" s="146">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C25" t="s" s="147">
         <v>12</v>
@@ -3200,7 +3226,7 @@
         <v>11</v>
       </c>
       <c r="E25" t="s" s="149">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="F25" t="s" s="150">
         <v>18</v>
@@ -3228,19 +3254,19 @@
     </row>
     <row r="27">
       <c r="A27" t="s" s="157">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="B27" t="s" s="158">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C27" t="s" s="159">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s" s="160">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s" s="161">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="F27" t="s" s="162">
         <v>18</v>
@@ -3248,10 +3274,10 @@
     </row>
     <row r="28">
       <c r="A28" t="s" s="163">
-        <v>47</v>
+        <v>1</v>
       </c>
       <c r="B28" t="s" s="164">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C28" t="s" s="165">
         <v>16</v>
@@ -3268,16 +3294,16 @@
     </row>
     <row r="29">
       <c r="A29" t="s" s="169">
-        <v>1</v>
+        <v>49</v>
       </c>
       <c r="B29" t="s" s="170">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C29" t="s" s="171">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D29" t="s" s="172">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="E29" t="s" s="173">
         <v>18</v>
@@ -3288,30 +3314,30 @@
     </row>
     <row r="30">
       <c r="A30" t="s" s="175">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="B30" t="s" s="176">
-        <v>1</v>
+        <v>38</v>
       </c>
       <c r="C30" t="s" s="177">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D30" t="s" s="178">
         <v>11</v>
       </c>
       <c r="E30" t="s" s="179">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="F30" t="s" s="180">
-        <v>18</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s" s="181">
-        <v>50</v>
+        <v>1</v>
       </c>
       <c r="B31" t="s" s="182">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C31" t="s" s="183">
         <v>12</v>
@@ -3328,10 +3354,10 @@
     </row>
     <row r="32">
       <c r="A32" t="s" s="187">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="B32" t="s" s="188">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C32" t="s" s="189">
         <v>16</v>
@@ -3354,7 +3380,7 @@
         <v>1</v>
       </c>
       <c r="C33" t="s" s="195">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D33" t="s" s="196">
         <v>11</v>
@@ -3368,16 +3394,16 @@
     </row>
     <row r="34">
       <c r="A34" t="s" s="199">
-        <v>51</v>
+        <v>1</v>
       </c>
       <c r="B34" t="s" s="200">
-        <v>48</v>
+        <v>1</v>
       </c>
       <c r="C34" t="s" s="201">
         <v>12</v>
       </c>
       <c r="D34" t="s" s="202">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s" s="203">
         <v>18</v>
@@ -3388,16 +3414,16 @@
     </row>
     <row r="35">
       <c r="A35" t="s" s="205">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B35" t="s" s="206">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C35" t="s" s="207">
         <v>12</v>
       </c>
       <c r="D35" t="s" s="208">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s" s="209">
         <v>18</v>
@@ -3408,16 +3434,16 @@
     </row>
     <row r="36">
       <c r="A36" t="s" s="211">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="B36" t="s" s="212">
-        <v>53</v>
+        <v>1</v>
       </c>
       <c r="C36" t="s" s="213">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D36" t="s" s="214">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s" s="215">
         <v>18</v>
@@ -3428,16 +3454,16 @@
     </row>
     <row r="37">
       <c r="A37" t="s" s="217">
+        <v>1</v>
+      </c>
+      <c r="B37" t="s" s="218">
+        <v>1</v>
+      </c>
+      <c r="C37" t="s" s="219">
         <v>55</v>
       </c>
-      <c r="B37" t="s" s="218">
-        <v>56</v>
-      </c>
-      <c r="C37" t="s" s="219">
-        <v>12</v>
-      </c>
       <c r="D37" t="s" s="220">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="E37" t="s" s="221">
         <v>18</v>
@@ -3448,16 +3474,16 @@
     </row>
     <row r="38">
       <c r="A38" t="s" s="223">
-        <v>1</v>
+        <v>57</v>
       </c>
       <c r="B38" t="s" s="224">
-        <v>1</v>
+        <v>54</v>
       </c>
       <c r="C38" t="s" s="225">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s" s="226">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="E38" t="s" s="227">
         <v>18</v>
@@ -3468,19 +3494,19 @@
     </row>
     <row r="39">
       <c r="A39" t="s" s="229">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B39" t="s" s="230">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C39" t="s" s="231">
         <v>12</v>
       </c>
       <c r="D39" t="s" s="232">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E39" t="s" s="233">
-        <v>59</v>
+        <v>18</v>
       </c>
       <c r="F39" t="s" s="234">
         <v>18</v>
@@ -3488,16 +3514,16 @@
     </row>
     <row r="40">
       <c r="A40" t="s" s="235">
-        <v>1</v>
+        <v>60</v>
       </c>
       <c r="B40" t="s" s="236">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C40" t="s" s="237">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D40" t="s" s="238">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E40" t="s" s="239">
         <v>18</v>
@@ -3508,19 +3534,19 @@
     </row>
     <row r="41">
       <c r="A41" t="s" s="241">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B41" t="s" s="242">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C41" t="s" s="243">
-        <v>49</v>
+        <v>12</v>
       </c>
       <c r="D41" t="s" s="244">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="E41" t="s" s="245">
-        <v>61</v>
+        <v>18</v>
       </c>
       <c r="F41" t="s" s="246">
         <v>18</v>
@@ -3534,7 +3560,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="s" s="249">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="D42" t="s" s="250">
         <v>11</v>
@@ -3543,24 +3569,24 @@
         <v>18</v>
       </c>
       <c r="F42" t="s" s="252">
-        <v>62</v>
+        <v>18</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s" s="253">
-        <v>1</v>
+        <v>63</v>
       </c>
       <c r="B43" t="s" s="254">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C43" t="s" s="255">
         <v>12</v>
       </c>
       <c r="D43" t="s" s="256">
-        <v>11</v>
+        <v>62</v>
       </c>
       <c r="E43" t="s" s="257">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="F43" t="s" s="258">
         <v>18</v>
@@ -3574,7 +3600,7 @@
         <v>1</v>
       </c>
       <c r="C44" t="s" s="261">
-        <v>12</v>
+        <v>55</v>
       </c>
       <c r="D44" t="s" s="262">
         <v>11</v>
@@ -3583,24 +3609,24 @@
         <v>18</v>
       </c>
       <c r="F44" t="s" s="264">
-        <v>64</v>
+        <v>18</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="265">
-        <v>1</v>
+        <v>66</v>
       </c>
       <c r="B45" t="s" s="266">
-        <v>1</v>
+        <v>64</v>
       </c>
       <c r="C45" t="s" s="267">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D45" t="s" s="268">
         <v>11</v>
       </c>
       <c r="E45" t="s" s="269">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F45" t="s" s="270">
         <v>18</v>
@@ -3614,7 +3640,7 @@
         <v>1</v>
       </c>
       <c r="C46" t="s" s="273">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="D46" t="s" s="274">
         <v>11</v>
@@ -3623,15 +3649,15 @@
         <v>18</v>
       </c>
       <c r="F46" t="s" s="276">
-        <v>66</v>
+        <v>68</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s" s="277">
-        <v>67</v>
+        <v>1</v>
       </c>
       <c r="B47" t="s" s="278">
-        <v>58</v>
+        <v>1</v>
       </c>
       <c r="C47" t="s" s="279">
         <v>12</v>
@@ -3640,7 +3666,7 @@
         <v>11</v>
       </c>
       <c r="E47" t="s" s="281">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="F47" t="s" s="282">
         <v>18</v>
@@ -3657,13 +3683,13 @@
         <v>12</v>
       </c>
       <c r="D48" t="s" s="286">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="E48" t="s" s="287">
-        <v>68</v>
+        <v>18</v>
       </c>
       <c r="F48" t="s" s="288">
-        <v>18</v>
+        <v>70</v>
       </c>
     </row>
     <row r="49">
@@ -3674,13 +3700,13 @@
         <v>1</v>
       </c>
       <c r="C49" t="s" s="291">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D49" t="s" s="292">
-        <v>35</v>
+        <v>11</v>
       </c>
       <c r="E49" t="s" s="293">
-        <v>18</v>
+        <v>71</v>
       </c>
       <c r="F49" t="s" s="294">
         <v>18</v>
@@ -3688,117 +3714,157 @@
     </row>
     <row r="50">
       <c r="A50" t="s" s="295">
-        <v>69</v>
+        <v>1</v>
       </c>
       <c r="B50" t="s" s="296">
-        <v>70</v>
+        <v>1</v>
       </c>
       <c r="C50" t="s" s="297">
         <v>16</v>
       </c>
       <c r="D50" t="s" s="298">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="E50" t="s" s="299">
-        <v>71</v>
+        <v>18</v>
       </c>
       <c r="F50" t="s" s="300">
-        <v>18</v>
+        <v>72</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s" s="301">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="B51" t="s" s="302">
-        <v>1</v>
+        <v>74</v>
       </c>
       <c r="C51" t="s" s="303">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="D51" t="s" s="304">
-        <v>35</v>
+        <v>62</v>
       </c>
       <c r="E51" t="s" s="305">
-        <v>18</v>
+        <v>75</v>
       </c>
       <c r="F51" t="s" s="306">
-        <v>72</v>
+        <v>18</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s" s="307">
-        <v>73</v>
+        <v>1</v>
       </c>
       <c r="B52" t="s" s="308">
-        <v>74</v>
+        <v>1</v>
       </c>
       <c r="C52" t="s" s="309">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D52" t="s" s="310">
-        <v>74</v>
+        <v>38</v>
       </c>
       <c r="E52" t="s" s="311">
         <v>18</v>
       </c>
       <c r="F52" t="s" s="312">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s" s="313">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B53" t="s" s="314">
-        <v>76</v>
-      </c>
-      <c r="E53" t="s" s="315">
-        <v>77</v>
-      </c>
-      <c r="F53" t="s" s="316">
+        <v>74</v>
+      </c>
+      <c r="C53" t="s" s="315">
+        <v>12</v>
+      </c>
+      <c r="D53" t="s" s="316">
+        <v>74</v>
+      </c>
+      <c r="E53" t="s" s="317">
+        <v>18</v>
+      </c>
+      <c r="F53" t="s" s="318">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="s" s="319">
         <v>78</v>
       </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="317"/>
-      <c r="B54" t="s" s="318">
+      <c r="B54" t="s" s="320">
         <v>79</v>
       </c>
-      <c r="E54" t="s" s="319">
+      <c r="C54" t="s" s="321">
+        <v>16</v>
+      </c>
+      <c r="D54" t="s" s="322">
+        <v>79</v>
+      </c>
+      <c r="E54" t="s" s="323">
+        <v>18</v>
+      </c>
+      <c r="F54" t="s" s="324">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="s" s="325">
         <v>80</v>
       </c>
-      <c r="F54" t="s" s="320">
+      <c r="B55" t="s" s="326">
         <v>81</v>
       </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="321"/>
-      <c r="B55" t="s" s="322">
+      <c r="E55" t="s" s="327">
         <v>82</v>
       </c>
-      <c r="C55" s="323"/>
-      <c r="D55" s="324"/>
-      <c r="E55" t="s" s="325">
+      <c r="F55" t="s" s="328">
         <v>83</v>
       </c>
-      <c r="F55" t="s" s="326">
+    </row>
+    <row r="56">
+      <c r="A56" s="329"/>
+      <c r="B56" t="s" s="330">
         <v>84</v>
       </c>
+      <c r="E56" t="s" s="331">
+        <v>85</v>
+      </c>
+      <c r="F56" t="s" s="332">
+        <v>86</v>
+      </c>
     </row>
     <row r="57">
-      <c r="A57" t="s" s="327">
-        <v>85</v>
+      <c r="A57" s="333"/>
+      <c r="B57" t="s" s="334">
+        <v>87</v>
+      </c>
+      <c r="C57" s="335"/>
+      <c r="D57" s="336"/>
+      <c r="E57" t="s" s="337">
+        <v>88</v>
+      </c>
+      <c r="F57" t="s" s="338">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="s" s="339">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:D54"/>
     <mergeCell ref="B55:D55"/>
-    <mergeCell ref="A57:F57"/>
+    <mergeCell ref="B56:D56"/>
+    <mergeCell ref="B57:D57"/>
+    <mergeCell ref="A59:F59"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -3821,698 +3887,678 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="328">
+      <c r="A1" t="s" s="340">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="329">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="330">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="331">
-        <v>86</v>
-      </c>
-      <c r="E1" t="s" s="332">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="333">
-        <v>87</v>
+      <c r="B1" t="s" s="341">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="342">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="343">
+        <v>91</v>
+      </c>
+      <c r="E1" t="s" s="344">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="345">
+        <v>92</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="334">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="335">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="336">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="337">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="338">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="339">
+      <c r="A2" t="s" s="346">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="347">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="348">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="349">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="350">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="351">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="340">
+      <c r="A3" t="s" s="352">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="341">
+      <c r="B3" t="s" s="353">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="342">
+      <c r="C3" t="s" s="354">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="343">
+      <c r="D3" t="s" s="355">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="344">
+      <c r="E3" t="s" s="356">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="345">
+      <c r="F3" t="s" s="357">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="346">
-        <v>88</v>
-      </c>
-      <c r="B4" t="s" s="347">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s" s="348">
+      <c r="A4" t="s" s="358">
+        <v>93</v>
+      </c>
+      <c r="B4" t="s" s="359">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="360">
         <v>12</v>
       </c>
-      <c r="D4" t="s" s="349">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="350">
+      <c r="D4" t="s" s="361">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="362">
+        <v>94</v>
+      </c>
+      <c r="F4" t="s" s="363">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="364">
+        <v>95</v>
+      </c>
+      <c r="B5" t="s" s="365">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="366">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="367">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s" s="368">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="369">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="370">
+        <v>96</v>
+      </c>
+      <c r="B6" t="s" s="371">
+        <v>11</v>
+      </c>
+      <c r="C6" t="s" s="372">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="373">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s" s="374">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s" s="375">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="376">
+        <v>97</v>
+      </c>
+      <c r="B7" t="s" s="377">
+        <v>11</v>
+      </c>
+      <c r="C7" t="s" s="378">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s" s="379">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s" s="380">
+        <v>18</v>
+      </c>
+      <c r="F7" t="s" s="381">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="382">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s" s="383">
+        <v>11</v>
+      </c>
+      <c r="C8" t="s" s="384">
+        <v>12</v>
+      </c>
+      <c r="D8" t="s" s="385">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s" s="386">
+        <v>18</v>
+      </c>
+      <c r="F8" t="s" s="387">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="388">
+        <v>99</v>
+      </c>
+      <c r="B9" t="s" s="389">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s" s="390">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s" s="391">
+        <v>38</v>
+      </c>
+      <c r="E9" t="s" s="392">
+        <v>100</v>
+      </c>
+      <c r="F9" t="s" s="393">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="394">
+        <v>101</v>
+      </c>
+      <c r="B10" t="s" s="395">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s" s="396">
+        <v>12</v>
+      </c>
+      <c r="D10" t="s" s="397">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s" s="398">
+        <v>18</v>
+      </c>
+      <c r="F10" t="s" s="399">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="400">
+        <v>1</v>
+      </c>
+      <c r="B11" t="s" s="401">
+        <v>1</v>
+      </c>
+      <c r="C11" t="s" s="402">
+        <v>55</v>
+      </c>
+      <c r="D11" t="s" s="403">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s" s="404">
+        <v>18</v>
+      </c>
+      <c r="F11" t="s" s="405">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="406">
+        <v>102</v>
+      </c>
+      <c r="B12" t="s" s="407">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s" s="408">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s" s="409">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s" s="410">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s" s="411">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="412">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s" s="413">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s" s="414">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s" s="415">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s" s="416">
+        <v>18</v>
+      </c>
+      <c r="F13" t="s" s="417">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="418">
+        <v>102</v>
+      </c>
+      <c r="B14" t="s" s="419">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s" s="420">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s" s="421">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s" s="422">
+        <v>18</v>
+      </c>
+      <c r="F14" t="s" s="423">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="424">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s" s="425">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s" s="426">
+        <v>16</v>
+      </c>
+      <c r="D15" t="s" s="427">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s" s="428">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s" s="429">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="430">
+        <v>103</v>
+      </c>
+      <c r="B16" t="s" s="431">
+        <v>54</v>
+      </c>
+      <c r="C16" t="s" s="432">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s" s="433">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s" s="434">
+        <v>104</v>
+      </c>
+      <c r="F16" t="s" s="435">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="436">
+        <v>1</v>
+      </c>
+      <c r="B17" t="s" s="437">
+        <v>1</v>
+      </c>
+      <c r="C17" t="s" s="438">
+        <v>55</v>
+      </c>
+      <c r="D17" t="s" s="439">
+        <v>38</v>
+      </c>
+      <c r="E17" t="s" s="440">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s" s="441">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="442">
+        <v>106</v>
+      </c>
+      <c r="B18" t="s" s="443">
+        <v>54</v>
+      </c>
+      <c r="C18" t="s" s="444">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s" s="445">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s" s="446">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s" s="447">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="448">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s" s="449">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s" s="450">
+        <v>12</v>
+      </c>
+      <c r="D19" t="s" s="451">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s" s="452">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s" s="453">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="454">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s" s="455">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s" s="456">
+        <v>12</v>
+      </c>
+      <c r="D20" t="s" s="457">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s" s="458">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s" s="459">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="460">
+        <v>107</v>
+      </c>
+      <c r="B21" t="s" s="461">
+        <v>54</v>
+      </c>
+      <c r="C21" t="s" s="462">
+        <v>12</v>
+      </c>
+      <c r="D21" t="s" s="463">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s" s="464">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s" s="465">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="466">
+        <v>1</v>
+      </c>
+      <c r="B22" t="s" s="467">
+        <v>1</v>
+      </c>
+      <c r="C22" t="s" s="468">
+        <v>16</v>
+      </c>
+      <c r="D22" t="s" s="469">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s" s="470">
+        <v>18</v>
+      </c>
+      <c r="F22" t="s" s="471">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="472">
+        <v>1</v>
+      </c>
+      <c r="B23" t="s" s="473">
+        <v>1</v>
+      </c>
+      <c r="C23" t="s" s="474">
+        <v>55</v>
+      </c>
+      <c r="D23" t="s" s="475">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s" s="476">
+        <v>18</v>
+      </c>
+      <c r="F23" t="s" s="477">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="478">
+        <v>108</v>
+      </c>
+      <c r="B24" t="s" s="479">
+        <v>54</v>
+      </c>
+      <c r="C24" t="s" s="480">
+        <v>16</v>
+      </c>
+      <c r="D24" t="s" s="481">
+        <v>38</v>
+      </c>
+      <c r="E24" t="s" s="482">
+        <v>18</v>
+      </c>
+      <c r="F24" t="s" s="483">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="484">
+        <v>1</v>
+      </c>
+      <c r="B25" t="s" s="485">
+        <v>1</v>
+      </c>
+      <c r="C25" t="s" s="486">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s" s="487">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s" s="488">
+        <v>18</v>
+      </c>
+      <c r="F25" t="s" s="489">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="490">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s" s="491">
+        <v>54</v>
+      </c>
+      <c r="C26" t="s" s="492">
+        <v>16</v>
+      </c>
+      <c r="D26" t="s" s="493">
+        <v>54</v>
+      </c>
+      <c r="E26" t="s" s="494">
+        <v>18</v>
+      </c>
+      <c r="F26" t="s" s="495">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="496">
+        <v>111</v>
+      </c>
+      <c r="B27" t="s" s="497">
+        <v>74</v>
+      </c>
+      <c r="C27" t="s" s="498">
+        <v>16</v>
+      </c>
+      <c r="D27" t="s" s="499">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s" s="500">
+        <v>18</v>
+      </c>
+      <c r="F27" t="s" s="501">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="502">
+        <v>1</v>
+      </c>
+      <c r="B28" t="s" s="503">
+        <v>1</v>
+      </c>
+      <c r="C28" t="s" s="504">
+        <v>16</v>
+      </c>
+      <c r="D28" t="s" s="505">
         <v>62</v>
       </c>
-      <c r="F4" t="s" s="351">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="352">
+      <c r="E28" t="s" s="506">
+        <v>18</v>
+      </c>
+      <c r="F28" t="s" s="507">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="508">
+        <v>112</v>
+      </c>
+      <c r="B29" t="s" s="509">
+        <v>113</v>
+      </c>
+      <c r="C29" t="s" s="510">
+        <v>12</v>
+      </c>
+      <c r="D29" t="s" s="511">
+        <v>74</v>
+      </c>
+      <c r="E29" t="s" s="512">
+        <v>18</v>
+      </c>
+      <c r="F29" t="s" s="513">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="s" s="514">
+        <v>1</v>
+      </c>
+      <c r="B30" t="s" s="515">
+        <v>1</v>
+      </c>
+      <c r="C30" t="s" s="516">
+        <v>55</v>
+      </c>
+      <c r="D30" t="s" s="517">
+        <v>54</v>
+      </c>
+      <c r="E30" t="s" s="518">
+        <v>18</v>
+      </c>
+      <c r="F30" t="s" s="519">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="s" s="520">
+        <v>10</v>
+      </c>
+      <c r="B31" t="s" s="521">
+        <v>114</v>
+      </c>
+      <c r="C31" t="s" s="522">
+        <v>16</v>
+      </c>
+      <c r="D31" t="s" s="523">
+        <v>114</v>
+      </c>
+      <c r="E31" t="s" s="524">
+        <v>32</v>
+      </c>
+      <c r="F31" t="s" s="525">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="s" s="526">
+        <v>116</v>
+      </c>
+      <c r="B32" t="s" s="527">
+        <v>117</v>
+      </c>
+      <c r="E32" t="s" s="528">
+        <v>118</v>
+      </c>
+      <c r="F32" t="s" s="529">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="530"/>
+      <c r="B33" t="s" s="531">
+        <v>120</v>
+      </c>
+      <c r="E33" t="s" s="532">
+        <v>85</v>
+      </c>
+      <c r="F33" t="s" s="533">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="534"/>
+      <c r="B34" t="s" s="535">
+        <v>122</v>
+      </c>
+      <c r="C34" s="536"/>
+      <c r="D34" s="537"/>
+      <c r="E34" t="s" s="538">
+        <v>123</v>
+      </c>
+      <c r="F34" t="s" s="539">
         <v>89</v>
       </c>
-      <c r="B5" t="s" s="353">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s" s="354">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s" s="355">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s" s="356">
+    </row>
+    <row r="36">
+      <c r="A36" t="s" s="540">
         <v>90</v>
-      </c>
-      <c r="F5" t="s" s="357">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="358">
-        <v>91</v>
-      </c>
-      <c r="B6" t="s" s="359">
-        <v>11</v>
-      </c>
-      <c r="C6" t="s" s="360">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s" s="361">
-        <v>11</v>
-      </c>
-      <c r="E6" t="s" s="362">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s" s="363">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="364">
-        <v>92</v>
-      </c>
-      <c r="B7" t="s" s="365">
-        <v>11</v>
-      </c>
-      <c r="C7" t="s" s="366">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s" s="367">
-        <v>11</v>
-      </c>
-      <c r="E7" t="s" s="368">
-        <v>18</v>
-      </c>
-      <c r="F7" t="s" s="369">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="370">
-        <v>93</v>
-      </c>
-      <c r="B8" t="s" s="371">
-        <v>11</v>
-      </c>
-      <c r="C8" t="s" s="372">
-        <v>12</v>
-      </c>
-      <c r="D8" t="s" s="373">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s" s="374">
-        <v>18</v>
-      </c>
-      <c r="F8" t="s" s="375">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="376">
-        <v>94</v>
-      </c>
-      <c r="B9" t="s" s="377">
-        <v>11</v>
-      </c>
-      <c r="C9" t="s" s="378">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s" s="379">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s" s="380">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s" s="381">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="382">
-        <v>95</v>
-      </c>
-      <c r="B10" t="s" s="383">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s" s="384">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s" s="385">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s" s="386">
-        <v>96</v>
-      </c>
-      <c r="F10" t="s" s="387">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="388">
-        <v>97</v>
-      </c>
-      <c r="B11" t="s" s="389">
-        <v>35</v>
-      </c>
-      <c r="C11" t="s" s="390">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s" s="391">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s" s="392">
-        <v>18</v>
-      </c>
-      <c r="F11" t="s" s="393">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="394">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s" s="395">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s" s="396">
-        <v>49</v>
-      </c>
-      <c r="D12" t="s" s="397">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s" s="398">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s" s="399">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="400">
-        <v>98</v>
-      </c>
-      <c r="B13" t="s" s="401">
-        <v>35</v>
-      </c>
-      <c r="C13" t="s" s="402">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s" s="403">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s" s="404">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s" s="405">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="406">
-        <v>1</v>
-      </c>
-      <c r="B14" t="s" s="407">
-        <v>1</v>
-      </c>
-      <c r="C14" t="s" s="408">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s" s="409">
-        <v>11</v>
-      </c>
-      <c r="E14" t="s" s="410">
-        <v>18</v>
-      </c>
-      <c r="F14" t="s" s="411">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="412">
-        <v>98</v>
-      </c>
-      <c r="B15" t="s" s="413">
-        <v>35</v>
-      </c>
-      <c r="C15" t="s" s="414">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s" s="415">
-        <v>11</v>
-      </c>
-      <c r="E15" t="s" s="416">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s" s="417">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="418">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s" s="419">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s" s="420">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s" s="421">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s" s="422">
-        <v>18</v>
-      </c>
-      <c r="F16" t="s" s="423">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="424">
-        <v>99</v>
-      </c>
-      <c r="B17" t="s" s="425">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s" s="426">
-        <v>16</v>
-      </c>
-      <c r="D17" t="s" s="427">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s" s="428">
-        <v>100</v>
-      </c>
-      <c r="F17" t="s" s="429">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="430">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s" s="431">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s" s="432">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s" s="433">
-        <v>35</v>
-      </c>
-      <c r="E18" t="s" s="434">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s" s="435">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="436">
-        <v>102</v>
-      </c>
-      <c r="B19" t="s" s="437">
-        <v>48</v>
-      </c>
-      <c r="C19" t="s" s="438">
-        <v>12</v>
-      </c>
-      <c r="D19" t="s" s="439">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s" s="440">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s" s="441">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="442">
-        <v>1</v>
-      </c>
-      <c r="B20" t="s" s="443">
-        <v>1</v>
-      </c>
-      <c r="C20" t="s" s="444">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s" s="445">
-        <v>11</v>
-      </c>
-      <c r="E20" t="s" s="446">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s" s="447">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="448">
-        <v>1</v>
-      </c>
-      <c r="B21" t="s" s="449">
-        <v>1</v>
-      </c>
-      <c r="C21" t="s" s="450">
-        <v>12</v>
-      </c>
-      <c r="D21" t="s" s="451">
-        <v>11</v>
-      </c>
-      <c r="E21" t="s" s="452">
-        <v>18</v>
-      </c>
-      <c r="F21" t="s" s="453">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="454">
-        <v>103</v>
-      </c>
-      <c r="B22" t="s" s="455">
-        <v>48</v>
-      </c>
-      <c r="C22" t="s" s="456">
-        <v>12</v>
-      </c>
-      <c r="D22" t="s" s="457">
-        <v>11</v>
-      </c>
-      <c r="E22" t="s" s="458">
-        <v>18</v>
-      </c>
-      <c r="F22" t="s" s="459">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" t="s" s="460">
-        <v>1</v>
-      </c>
-      <c r="B23" t="s" s="461">
-        <v>1</v>
-      </c>
-      <c r="C23" t="s" s="462">
-        <v>16</v>
-      </c>
-      <c r="D23" t="s" s="463">
-        <v>11</v>
-      </c>
-      <c r="E23" t="s" s="464">
-        <v>18</v>
-      </c>
-      <c r="F23" t="s" s="465">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" t="s" s="466">
-        <v>1</v>
-      </c>
-      <c r="B24" t="s" s="467">
-        <v>1</v>
-      </c>
-      <c r="C24" t="s" s="468">
-        <v>49</v>
-      </c>
-      <c r="D24" t="s" s="469">
-        <v>11</v>
-      </c>
-      <c r="E24" t="s" s="470">
-        <v>18</v>
-      </c>
-      <c r="F24" t="s" s="471">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="A25" t="s" s="472">
-        <v>104</v>
-      </c>
-      <c r="B25" t="s" s="473">
-        <v>48</v>
-      </c>
-      <c r="C25" t="s" s="474">
-        <v>16</v>
-      </c>
-      <c r="D25" t="s" s="475">
-        <v>35</v>
-      </c>
-      <c r="E25" t="s" s="476">
-        <v>18</v>
-      </c>
-      <c r="F25" t="s" s="477">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="s" s="478">
-        <v>1</v>
-      </c>
-      <c r="B26" t="s" s="479">
-        <v>1</v>
-      </c>
-      <c r="C26" t="s" s="480">
-        <v>49</v>
-      </c>
-      <c r="D26" t="s" s="481">
-        <v>11</v>
-      </c>
-      <c r="E26" t="s" s="482">
-        <v>18</v>
-      </c>
-      <c r="F26" t="s" s="483">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="s" s="484">
-        <v>106</v>
-      </c>
-      <c r="B27" t="s" s="485">
-        <v>48</v>
-      </c>
-      <c r="C27" t="s" s="486">
-        <v>16</v>
-      </c>
-      <c r="D27" t="s" s="487">
-        <v>48</v>
-      </c>
-      <c r="E27" t="s" s="488">
-        <v>18</v>
-      </c>
-      <c r="F27" t="s" s="489">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="s" s="490">
-        <v>107</v>
-      </c>
-      <c r="B28" t="s" s="491">
-        <v>70</v>
-      </c>
-      <c r="C28" t="s" s="492">
-        <v>16</v>
-      </c>
-      <c r="D28" t="s" s="493">
-        <v>35</v>
-      </c>
-      <c r="E28" t="s" s="494">
-        <v>18</v>
-      </c>
-      <c r="F28" t="s" s="495">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="s" s="496">
-        <v>1</v>
-      </c>
-      <c r="B29" t="s" s="497">
-        <v>1</v>
-      </c>
-      <c r="C29" t="s" s="498">
-        <v>49</v>
-      </c>
-      <c r="D29" t="s" s="499">
-        <v>56</v>
-      </c>
-      <c r="E29" t="s" s="500">
-        <v>18</v>
-      </c>
-      <c r="F29" t="s" s="501">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="s" s="502">
-        <v>108</v>
-      </c>
-      <c r="B30" t="s" s="503">
-        <v>109</v>
-      </c>
-      <c r="C30" t="s" s="504">
-        <v>12</v>
-      </c>
-      <c r="D30" t="s" s="505">
-        <v>70</v>
-      </c>
-      <c r="E30" t="s" s="506">
-        <v>18</v>
-      </c>
-      <c r="F30" t="s" s="507">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="s" s="508">
-        <v>1</v>
-      </c>
-      <c r="B31" t="s" s="509">
-        <v>1</v>
-      </c>
-      <c r="C31" t="s" s="510">
-        <v>49</v>
-      </c>
-      <c r="D31" t="s" s="511">
-        <v>48</v>
-      </c>
-      <c r="E31" t="s" s="512">
-        <v>18</v>
-      </c>
-      <c r="F31" t="s" s="513">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="s" s="514">
-        <v>10</v>
-      </c>
-      <c r="B32" t="s" s="515">
-        <v>110</v>
-      </c>
-      <c r="C32" t="s" s="516">
-        <v>16</v>
-      </c>
-      <c r="D32" t="s" s="517">
-        <v>110</v>
-      </c>
-      <c r="E32" t="s" s="518">
-        <v>32</v>
-      </c>
-      <c r="F32" t="s" s="519">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="s" s="520">
-        <v>112</v>
-      </c>
-      <c r="B33" t="s" s="521">
-        <v>113</v>
-      </c>
-      <c r="E33" t="s" s="522">
-        <v>114</v>
-      </c>
-      <c r="F33" t="s" s="523">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="524"/>
-      <c r="B34" t="s" s="525">
-        <v>116</v>
-      </c>
-      <c r="E34" t="s" s="526">
-        <v>117</v>
-      </c>
-      <c r="F34" t="s" s="527">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="528"/>
-      <c r="B35" t="s" s="529">
-        <v>118</v>
-      </c>
-      <c r="C35" s="530"/>
-      <c r="D35" s="531"/>
-      <c r="E35" t="s" s="532">
-        <v>119</v>
-      </c>
-      <c r="F35" t="s" s="533">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="s" s="534">
-        <v>85</v>
       </c>
     </row>
   </sheetData>
   <mergeCells>
     <mergeCell ref="A1:C1"/>
     <mergeCell ref="D1:E1"/>
+    <mergeCell ref="B32:D32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="B34:D34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="A37:F37"/>
+    <mergeCell ref="A36:F36"/>
   </mergeCells>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
@@ -4535,468 +4581,468 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" t="s" s="535">
+      <c r="A1" t="s" s="541">
         <v>0</v>
       </c>
-      <c r="B1" t="s" s="536">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s" s="537">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s" s="538">
-        <v>120</v>
-      </c>
-      <c r="E1" t="s" s="539">
-        <v>1</v>
-      </c>
-      <c r="F1" t="s" s="540">
-        <v>121</v>
+      <c r="B1" t="s" s="542">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="543">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s" s="544">
+        <v>124</v>
+      </c>
+      <c r="E1" t="s" s="545">
+        <v>1</v>
+      </c>
+      <c r="F1" t="s" s="546">
+        <v>125</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="s" s="541">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="542">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s" s="543">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s" s="544">
-        <v>1</v>
-      </c>
-      <c r="E2" t="s" s="545">
-        <v>1</v>
-      </c>
-      <c r="F2" t="s" s="546">
+      <c r="A2" t="s" s="547">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s" s="548">
+        <v>1</v>
+      </c>
+      <c r="C2" t="s" s="549">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s" s="550">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s" s="551">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s" s="552">
         <v>1</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="s" s="547">
+      <c r="A3" t="s" s="553">
         <v>4</v>
       </c>
-      <c r="B3" t="s" s="548">
+      <c r="B3" t="s" s="554">
         <v>5</v>
       </c>
-      <c r="C3" t="s" s="549">
+      <c r="C3" t="s" s="555">
         <v>6</v>
       </c>
-      <c r="D3" t="s" s="550">
+      <c r="D3" t="s" s="556">
         <v>7</v>
       </c>
-      <c r="E3" t="s" s="551">
+      <c r="E3" t="s" s="557">
         <v>8</v>
       </c>
-      <c r="F3" t="s" s="552">
+      <c r="F3" t="s" s="558">
         <v>9</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="s" s="553">
-        <v>122</v>
-      </c>
-      <c r="B4" t="s" s="554">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s" s="555">
+      <c r="A4" t="s" s="559">
+        <v>126</v>
+      </c>
+      <c r="B4" t="s" s="560">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s" s="561">
         <v>12</v>
       </c>
-      <c r="D4" t="s" s="556">
-        <v>11</v>
-      </c>
-      <c r="E4" t="s" s="557">
+      <c r="D4" t="s" s="562">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s" s="563">
+        <v>127</v>
+      </c>
+      <c r="F4" t="s" s="564">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="565">
+        <v>128</v>
+      </c>
+      <c r="B5" t="s" s="566">
+        <v>11</v>
+      </c>
+      <c r="C5" t="s" s="567">
+        <v>12</v>
+      </c>
+      <c r="D5" t="s" s="568">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s" s="569">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s" s="570">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="571">
+        <v>129</v>
+      </c>
+      <c r="B6" t="s" s="572">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s" s="573">
+        <v>12</v>
+      </c>
+      <c r="D6" t="s" s="574">
+        <v>38</v>
+      </c>
+      <c r="E6" t="s" s="575">
+        <v>18</v>
+      </c>
+      <c r="F6" t="s" s="576">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="577">
+        <v>130</v>
+      </c>
+      <c r="B7" t="s" s="578">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s" s="579">
+        <v>12</v>
+      </c>
+      <c r="D7" t="s" s="580">
+        <v>38</v>
+      </c>
+      <c r="E7" t="s" s="581">
+        <v>131</v>
+      </c>
+      <c r="F7" t="s" s="582">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="583">
+        <v>132</v>
+      </c>
+      <c r="B8" t="s" s="584">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s" s="585">
+        <v>55</v>
+      </c>
+      <c r="D8" t="s" s="586">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s" s="587">
+        <v>133</v>
+      </c>
+      <c r="F8" t="s" s="588">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="589">
+        <v>1</v>
+      </c>
+      <c r="B9" t="s" s="590">
+        <v>1</v>
+      </c>
+      <c r="C9" t="s" s="591">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s" s="592">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s" s="593">
+        <v>18</v>
+      </c>
+      <c r="F9" t="s" s="594">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="595">
+        <v>136</v>
+      </c>
+      <c r="B10" t="s" s="596">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s" s="597">
+        <v>16</v>
+      </c>
+      <c r="D10" t="s" s="598">
+        <v>38</v>
+      </c>
+      <c r="E10" t="s" s="599">
+        <v>137</v>
+      </c>
+      <c r="F10" t="s" s="600">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="601">
+        <v>138</v>
+      </c>
+      <c r="B11" t="s" s="602">
+        <v>54</v>
+      </c>
+      <c r="C11" t="s" s="603">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s" s="604">
+        <v>54</v>
+      </c>
+      <c r="E11" t="s" s="605">
+        <v>139</v>
+      </c>
+      <c r="F11" t="s" s="606">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="607">
+        <v>140</v>
+      </c>
+      <c r="B12" t="s" s="608">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s" s="609">
+        <v>12</v>
+      </c>
+      <c r="D12" t="s" s="610">
+        <v>38</v>
+      </c>
+      <c r="E12" t="s" s="611">
+        <v>18</v>
+      </c>
+      <c r="F12" t="s" s="612">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="613">
+        <v>1</v>
+      </c>
+      <c r="B13" t="s" s="614">
+        <v>1</v>
+      </c>
+      <c r="C13" t="s" s="615">
+        <v>16</v>
+      </c>
+      <c r="D13" t="s" s="616">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s" s="617">
+        <v>141</v>
+      </c>
+      <c r="F13" t="s" s="618">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="619">
+        <v>10</v>
+      </c>
+      <c r="B14" t="s" s="620">
+        <v>54</v>
+      </c>
+      <c r="C14" t="s" s="621">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s" s="622">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s" s="623">
+        <v>32</v>
+      </c>
+      <c r="F14" t="s" s="624">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="625">
+        <v>1</v>
+      </c>
+      <c r="B15" t="s" s="626">
+        <v>1</v>
+      </c>
+      <c r="C15" t="s" s="627">
+        <v>55</v>
+      </c>
+      <c r="D15" t="s" s="628">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s" s="629">
+        <v>18</v>
+      </c>
+      <c r="F15" t="s" s="630">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="631">
+        <v>1</v>
+      </c>
+      <c r="B16" t="s" s="632">
+        <v>1</v>
+      </c>
+      <c r="C16" t="s" s="633">
+        <v>16</v>
+      </c>
+      <c r="D16" t="s" s="634">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s" s="635">
+        <v>18</v>
+      </c>
+      <c r="F16" t="s" s="636">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="637">
+        <v>143</v>
+      </c>
+      <c r="B17" t="s" s="638">
+        <v>62</v>
+      </c>
+      <c r="C17" t="s" s="639">
+        <v>12</v>
+      </c>
+      <c r="D17" t="s" s="640">
+        <v>62</v>
+      </c>
+      <c r="E17" t="s" s="641">
+        <v>18</v>
+      </c>
+      <c r="F17" t="s" s="642">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="643">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s" s="644">
+        <v>74</v>
+      </c>
+      <c r="C18" t="s" s="645">
+        <v>12</v>
+      </c>
+      <c r="D18" t="s" s="646">
+        <v>38</v>
+      </c>
+      <c r="E18" t="s" s="647">
+        <v>18</v>
+      </c>
+      <c r="F18" t="s" s="648">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="649">
+        <v>1</v>
+      </c>
+      <c r="B19" t="s" s="650">
+        <v>1</v>
+      </c>
+      <c r="C19" t="s" s="651">
+        <v>16</v>
+      </c>
+      <c r="D19" t="s" s="652">
+        <v>59</v>
+      </c>
+      <c r="E19" t="s" s="653">
+        <v>18</v>
+      </c>
+      <c r="F19" t="s" s="654">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="655">
+        <v>1</v>
+      </c>
+      <c r="B20" t="s" s="656">
+        <v>1</v>
+      </c>
+      <c r="C20" t="s" s="657">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s" s="658">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s" s="659">
+        <v>18</v>
+      </c>
+      <c r="F20" t="s" s="660">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="661">
+        <v>145</v>
+      </c>
+      <c r="B21" t="s" s="662">
+        <v>146</v>
+      </c>
+      <c r="C21" t="s" s="663">
+        <v>55</v>
+      </c>
+      <c r="D21" t="s" s="664">
+        <v>146</v>
+      </c>
+      <c r="E21" t="s" s="665">
+        <v>18</v>
+      </c>
+      <c r="F21" t="s" s="666">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="667">
+        <v>148</v>
+      </c>
+      <c r="B22" t="s" s="668">
+        <v>149</v>
+      </c>
+      <c r="E22" t="s" s="669">
+        <v>150</v>
+      </c>
+      <c r="F22" t="s" s="670">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="671"/>
+      <c r="B23" t="s" s="672">
+        <v>152</v>
+      </c>
+      <c r="E23" t="s" s="673">
+        <v>153</v>
+      </c>
+      <c r="F23" t="s" s="674">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="675"/>
+      <c r="B24" t="s" s="676">
+        <v>154</v>
+      </c>
+      <c r="C24" s="677"/>
+      <c r="D24" s="678"/>
+      <c r="E24" t="s" s="679">
         <v>123</v>
       </c>
-      <c r="F4" t="s" s="558">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="s" s="559">
-        <v>124</v>
-      </c>
-      <c r="B5" t="s" s="560">
-        <v>11</v>
-      </c>
-      <c r="C5" t="s" s="561">
-        <v>12</v>
-      </c>
-      <c r="D5" t="s" s="562">
-        <v>11</v>
-      </c>
-      <c r="E5" t="s" s="563">
-        <v>18</v>
-      </c>
-      <c r="F5" t="s" s="564">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="565">
-        <v>125</v>
-      </c>
-      <c r="B6" t="s" s="566">
-        <v>35</v>
-      </c>
-      <c r="C6" t="s" s="567">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s" s="568">
-        <v>35</v>
-      </c>
-      <c r="E6" t="s" s="569">
-        <v>18</v>
-      </c>
-      <c r="F6" t="s" s="570">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="571">
-        <v>126</v>
-      </c>
-      <c r="B7" t="s" s="572">
-        <v>35</v>
-      </c>
-      <c r="C7" t="s" s="573">
-        <v>12</v>
-      </c>
-      <c r="D7" t="s" s="574">
-        <v>35</v>
-      </c>
-      <c r="E7" t="s" s="575">
-        <v>127</v>
-      </c>
-      <c r="F7" t="s" s="576">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="s" s="577">
-        <v>128</v>
-      </c>
-      <c r="B8" t="s" s="578">
-        <v>35</v>
-      </c>
-      <c r="C8" t="s" s="579">
-        <v>49</v>
-      </c>
-      <c r="D8" t="s" s="580">
-        <v>11</v>
-      </c>
-      <c r="E8" t="s" s="581">
-        <v>129</v>
-      </c>
-      <c r="F8" t="s" s="582">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="s" s="583">
-        <v>1</v>
-      </c>
-      <c r="B9" t="s" s="584">
-        <v>1</v>
-      </c>
-      <c r="C9" t="s" s="585">
-        <v>12</v>
-      </c>
-      <c r="D9" t="s" s="586">
-        <v>11</v>
-      </c>
-      <c r="E9" t="s" s="587">
-        <v>18</v>
-      </c>
-      <c r="F9" t="s" s="588">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="s" s="589">
-        <v>132</v>
-      </c>
-      <c r="B10" t="s" s="590">
-        <v>35</v>
-      </c>
-      <c r="C10" t="s" s="591">
-        <v>16</v>
-      </c>
-      <c r="D10" t="s" s="592">
-        <v>35</v>
-      </c>
-      <c r="E10" t="s" s="593">
-        <v>133</v>
-      </c>
-      <c r="F10" t="s" s="594">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="s" s="595">
-        <v>134</v>
-      </c>
-      <c r="B11" t="s" s="596">
-        <v>48</v>
-      </c>
-      <c r="C11" t="s" s="597">
-        <v>12</v>
-      </c>
-      <c r="D11" t="s" s="598">
-        <v>11</v>
-      </c>
-      <c r="E11" t="s" s="599">
-        <v>135</v>
-      </c>
-      <c r="F11" t="s" s="600">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="s" s="601">
-        <v>1</v>
-      </c>
-      <c r="B12" t="s" s="602">
-        <v>1</v>
-      </c>
-      <c r="C12" t="s" s="603">
-        <v>12</v>
-      </c>
-      <c r="D12" t="s" s="604">
-        <v>11</v>
-      </c>
-      <c r="E12" t="s" s="605">
-        <v>18</v>
-      </c>
-      <c r="F12" t="s" s="606">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="s" s="607">
-        <v>1</v>
-      </c>
-      <c r="B13" t="s" s="608">
-        <v>1</v>
-      </c>
-      <c r="C13" t="s" s="609">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s" s="610">
-        <v>11</v>
-      </c>
-      <c r="E13" t="s" s="611">
-        <v>18</v>
-      </c>
-      <c r="F13" t="s" s="612">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="s" s="613">
-        <v>136</v>
-      </c>
-      <c r="B14" t="s" s="614">
-        <v>48</v>
-      </c>
-      <c r="C14" t="s" s="615">
-        <v>16</v>
-      </c>
-      <c r="D14" t="s" s="616">
-        <v>48</v>
-      </c>
-      <c r="E14" t="s" s="617">
-        <v>137</v>
-      </c>
-      <c r="F14" t="s" s="618">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="s" s="619">
-        <v>138</v>
-      </c>
-      <c r="B15" t="s" s="620">
-        <v>48</v>
-      </c>
-      <c r="C15" t="s" s="621">
-        <v>12</v>
-      </c>
-      <c r="D15" t="s" s="622">
-        <v>35</v>
-      </c>
-      <c r="E15" t="s" s="623">
-        <v>18</v>
-      </c>
-      <c r="F15" t="s" s="624">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s" s="625">
-        <v>1</v>
-      </c>
-      <c r="B16" t="s" s="626">
-        <v>1</v>
-      </c>
-      <c r="C16" t="s" s="627">
-        <v>16</v>
-      </c>
-      <c r="D16" t="s" s="628">
-        <v>11</v>
-      </c>
-      <c r="E16" t="s" s="629">
-        <v>139</v>
-      </c>
-      <c r="F16" t="s" s="630">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="s" s="631">
-        <v>10</v>
-      </c>
-      <c r="B17" t="s" s="632">
-        <v>48</v>
-      </c>
-      <c r="C17" t="s" s="633">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s" s="634">
-        <v>11</v>
-      </c>
-      <c r="E17" t="s" s="635">
-        <v>32</v>
-      </c>
-      <c r="F17" t="s" s="636">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" t="s" s="637">
-        <v>1</v>
-      </c>
-      <c r="B18" t="s" s="638">
-        <v>1</v>
-      </c>
-      <c r="C18" t="s" s="639">
-        <v>49</v>
-      </c>
-      <c r="D18" t="s" s="640">
-        <v>11</v>
-      </c>
-      <c r="E18" t="s" s="641">
-        <v>18</v>
-      </c>
-      <c r="F18" t="s" s="642">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" t="s" s="643">
-        <v>1</v>
-      </c>
-      <c r="B19" t="s" s="644">
-        <v>1</v>
-      </c>
-      <c r="C19" t="s" s="645">
-        <v>16</v>
-      </c>
-      <c r="D19" t="s" s="646">
-        <v>11</v>
-      </c>
-      <c r="E19" t="s" s="647">
-        <v>18</v>
-      </c>
-      <c r="F19" t="s" s="648">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" t="s" s="649">
-        <v>141</v>
-      </c>
-      <c r="B20" t="s" s="650">
-        <v>56</v>
-      </c>
-      <c r="C20" t="s" s="651">
-        <v>12</v>
-      </c>
-      <c r="D20" t="s" s="652">
-        <v>56</v>
-      </c>
-      <c r="E20" t="s" s="653">
-        <v>18</v>
-      </c>
-      <c r="F20" t="s" s="654">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" t="s" s="655">
-        <v>142</v>
-      </c>
-      <c r="B21" t="s" s="656">
-        <v>143</v>
-      </c>
-      <c r="C21" t="s" s="657">
-        <v>49</v>
-      </c>
-      <c r="D21" t="s" s="658">
-        <v>143</v>
-      </c>
-      <c r="E21" t="s" s="659">
-        <v>18</v>
-      </c>
-      <c r="F21" t="s" s="660">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" t="s" s="661">
-        <v>145</v>
-      </c>
-      <c r="B22" t="s" s="662">
-        <v>146</v>
-      </c>
-      <c r="E22" t="s" s="663">
-        <v>147</v>
-      </c>
-      <c r="F22" t="s" s="664">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="A23" s="665"/>
-      <c r="B23" t="s" s="666">
-        <v>149</v>
-      </c>
-      <c r="E23" t="s" s="667">
-        <v>117</v>
-      </c>
-      <c r="F23" t="s" s="668">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="A24" s="669"/>
-      <c r="B24" t="s" s="670">
-        <v>118</v>
-      </c>
-      <c r="C24" s="671"/>
-      <c r="D24" s="672"/>
-      <c r="E24" t="s" s="673">
-        <v>119</v>
-      </c>
-      <c r="F24" t="s" s="674">
-        <v>84</v>
+      <c r="F24" t="s" s="680">
+        <v>89</v>
       </c>
     </row>
     <row r="26">
-      <c r="A26" t="s" s="675">
-        <v>85</v>
+      <c r="A26" t="s" s="681">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
